--- a/HV_Power_Supply_PcApp/HV_Power_Supply_PcApp/bin/Debug/Kalibrace_2024.xlsx
+++ b/HV_Power_Supply_PcApp/HV_Power_Supply_PcApp/bin/Debug/Kalibrace_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomas/Documents/_temp/Atlas_HV_Power_Supply_PcApp/HV_Power_Supply_PcApp/HV_Power_Supply_PcApp/bin/Debug/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CODE_temp\Atlas_HV_Power_Supply_PcApp\HV_Power_Supply_PcApp\HV_Power_Supply_PcApp\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F872AFA2-7CE2-5645-97DC-2E05A71218B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7B66CB-ECE3-43C4-9248-9CACB3178F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31740" yWindow="-15480" windowWidth="15980" windowHeight="26660" activeTab="3" xr2:uid="{42646E07-1115-40A8-A93A-C57D4D85C566}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{42646E07-1115-40A8-A93A-C57D4D85C566}"/>
   </bookViews>
   <sheets>
     <sheet name="HV1" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -129,11 +151,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="168" formatCode="0.00000000"/>
-    <numFmt numFmtId="169" formatCode="0.0000000"/>
-    <numFmt numFmtId="170" formatCode="0.00000"/>
-    <numFmt numFmtId="172" formatCode="0.000000000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -270,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -301,19 +322,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="7"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -492,22 +512,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.1934782158321076</c:v>
+                  <c:v>1.1184420083133273</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0380989869274275</c:v>
+                  <c:v>0.99067278953287885</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83092668172118755</c:v>
+                  <c:v>0.80814533413223821</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.62375437651494758</c:v>
+                  <c:v>0.62561787873159769</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.41658207130870756</c:v>
+                  <c:v>0.44309042333095711</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.31299591870558752</c:v>
+                  <c:v>0.35182669563063684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -519,22 +539,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>112.6</c:v>
+                  <c:v>34.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>191.8</c:v>
+                  <c:v>106.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>291.10000000000002</c:v>
+                  <c:v>209.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>392.3</c:v>
+                  <c:v>311.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>485.4</c:v>
+                  <c:v>413.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>519.6</c:v>
+                  <c:v>458.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4653,8 +4673,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.16608950688174703"/>
-                  <c:y val="-8.1657801846208661E-5"/>
+                  <c:x val="-0.39375048160813453"/>
+                  <c:y val="-0.21584681578111764"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="#,##0.00000000" sourceLinked="0"/>
@@ -4694,22 +4714,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.1809288772429509</c:v>
+                  <c:v>1.1184420083133273</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0298929933438095</c:v>
+                  <c:v>0.99067278953287885</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82851181481162106</c:v>
+                  <c:v>0.80814533413223821</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.62713063627943266</c:v>
+                  <c:v>0.62561787873159769</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.42574945774724415</c:v>
+                  <c:v>0.44309042333095711</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3250588684811499</c:v>
+                  <c:v>0.35182669563063684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4721,22 +4741,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>99.9</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>178.5</c:v>
+                  <c:v>91.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>279.10000000000002</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>380.5</c:v>
+                  <c:v>296.10000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>476.1</c:v>
+                  <c:v>398</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>512.20000000000005</c:v>
+                  <c:v>446</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8911,8 +8931,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.13032342228653815"/>
-                  <c:y val="-4.7190993531918916E-3"/>
+                  <c:x val="-0.42568982476842898"/>
+                  <c:y val="-0.2599097832338213"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="#,##0.00000000" sourceLinked="0"/>
@@ -8952,22 +8972,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.1809288772429509</c:v>
+                  <c:v>1.1184420083133273</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0298929933438095</c:v>
+                  <c:v>0.99067278953287885</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82851181481162106</c:v>
+                  <c:v>0.80814533413223821</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.62713063627943266</c:v>
+                  <c:v>0.62561787873159769</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.42574945774724415</c:v>
+                  <c:v>0.44309042333095711</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3250588684811499</c:v>
+                  <c:v>0.35182669563063684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8979,22 +8999,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>111.8</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>189.4</c:v>
+                  <c:v>102.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>282.8</c:v>
+                  <c:v>203.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>384.2</c:v>
+                  <c:v>300.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>477.3</c:v>
+                  <c:v>399.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>512.1</c:v>
+                  <c:v>445</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11370,22 +11390,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>112.6</c:v>
+                  <c:v>34.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>191.8</c:v>
+                  <c:v>106.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>291.10000000000002</c:v>
+                  <c:v>209.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>392.3</c:v>
+                  <c:v>311.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>485.4</c:v>
+                  <c:v>413.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>519.6</c:v>
+                  <c:v>458.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11397,22 +11417,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.67088000000000003</c:v>
+                  <c:v>0.249696684</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.09964</c:v>
+                  <c:v>0.63785532</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6358600000000001</c:v>
+                  <c:v>1.2027454019999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1780200000000001</c:v>
+                  <c:v>1.7535403380000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6737400000000004</c:v>
+                  <c:v>2.3032510319999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8546400000000003</c:v>
+                  <c:v>2.5493739660000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11778,22 +11798,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>99.9</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>178.5</c:v>
+                  <c:v>91.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>279.10000000000002</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>380.5</c:v>
+                  <c:v>296.10000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>476.1</c:v>
+                  <c:v>398</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>512.20000000000005</c:v>
+                  <c:v>446</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11805,22 +11825,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.61315330000000001</c:v>
+                  <c:v>0.25457577300000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0364225299999998</c:v>
+                  <c:v>0.57496928400000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5755224699999999</c:v>
+                  <c:v>1.1534123909999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1173287350000001</c:v>
+                  <c:v>1.6977018749999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6250353049999999</c:v>
+                  <c:v>2.2430756010000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8144780549999999</c:v>
+                  <c:v>2.4989567130000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12180,22 +12200,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>111.8</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>189.4</c:v>
+                  <c:v>102.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>282.8</c:v>
+                  <c:v>203.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>384.2</c:v>
+                  <c:v>300.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>477.3</c:v>
+                  <c:v>399.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>512.1</c:v>
+                  <c:v>445</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12207,22 +12227,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.64671172999999993</c:v>
+                  <c:v>0.22963820700000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.072687285</c:v>
+                  <c:v>0.6183389640000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5863477699999999</c:v>
+                  <c:v>1.1788920780000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1433094549999998</c:v>
+                  <c:v>1.7107127789999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6493922300000001</c:v>
+                  <c:v>2.2550022630000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.83125727</c:v>
+                  <c:v>2.5032936810000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -32499,16 +32519,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>52388</xdr:rowOff>
+      <xdr:rowOff>100013</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34068,24 +34088,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E729D20-13F7-4C55-8C83-89C49955F856}">
   <dimension ref="A1:AE54"/>
   <sheetViews>
-    <sheetView topLeftCell="E5" zoomScale="159" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V54" sqref="V54"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" customWidth="1"/>
-    <col min="12" max="12" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
-    <col min="21" max="22" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" customWidth="1"/>
+    <col min="21" max="21" width="17.5703125" customWidth="1"/>
+    <col min="22" max="22" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -34108,18 +34130,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>482.69</v>
+        <v>547.86278470000002</v>
       </c>
       <c r="C2">
-        <v>601.08000000000004</v>
-      </c>
-      <c r="D2" s="13">
-        <v>5.4000000000000003E-3</v>
-      </c>
-      <c r="E2" s="14">
-        <v>6.2300000000000001E-2</v>
+        <v>642.75275320000003</v>
+      </c>
+      <c r="D2" s="12">
+        <v>5.4212100000000001E-3</v>
+      </c>
+      <c r="E2" s="13">
+        <v>5.778585E-2</v>
       </c>
       <c r="G2" s="2">
         <v>9.9720000000000003E-2</v>
@@ -34128,7 +34150,7 @@
         <v>6.1899999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -34154,23 +34176,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2">
-        <v>112.7</v>
+        <v>35.4</v>
       </c>
       <c r="C5" s="2">
-        <v>112.6</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="D5" s="2">
         <f>($C$2-A5)/$B$2</f>
-        <v>1.1934782158321076</v>
+        <v>1.1184420083133273</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" ref="E5:E10" si="0">(B5*$D$2)+$E$2</f>
-        <v>0.67088000000000003</v>
+        <v>0.249696684</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -34179,23 +34201,23 @@
         <v>6.1899999999999997E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>100</v>
       </c>
       <c r="B6" s="2">
-        <v>192.1</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2">
-        <v>191.8</v>
+        <v>106.1</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" ref="D6:D10" si="1">($C$2-A6)/$B$2</f>
-        <v>1.0380989869274275</v>
+        <v>0.99067278953287885</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>1.09964</v>
+        <v>0.63785532</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -34204,23 +34226,23 @@
         <v>6.1899999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>200</v>
       </c>
       <c r="B7" s="2">
-        <v>291.39999999999998</v>
+        <v>211.2</v>
       </c>
       <c r="C7" s="2">
-        <v>291.10000000000002</v>
+        <v>209.8</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="1"/>
-        <v>0.83092668172118755</v>
+        <v>0.80814533413223821</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6358600000000001</v>
+        <v>1.2027454019999999</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -34229,23 +34251,23 @@
         <v>6.1899999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>300</v>
       </c>
       <c r="B8" s="2">
-        <v>391.8</v>
+        <v>312.8</v>
       </c>
       <c r="C8" s="2">
-        <v>392.3</v>
+        <v>311.2</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="1"/>
-        <v>0.62375437651494758</v>
+        <v>0.62561787873159769</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1780200000000001</v>
+        <v>1.7535403380000001</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -34254,50 +34276,50 @@
         <v>6.1899999999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>400</v>
       </c>
       <c r="B9" s="2">
-        <v>483.6</v>
+        <v>414.2</v>
       </c>
       <c r="C9" s="2">
-        <v>485.4</v>
+        <v>413.1</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
-        <v>0.41658207130870756</v>
+        <v>0.44309042333095711</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>2.6737400000000004</v>
+        <v>2.3032510319999999</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>450</v>
       </c>
       <c r="B10" s="2">
-        <v>517.1</v>
+        <v>459.6</v>
       </c>
       <c r="C10" s="2">
-        <v>519.6</v>
+        <v>458.9</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>0.31299591870558752</v>
+        <v>0.35182669563063684</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>2.8546400000000003</v>
+        <v>2.5493739660000001</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="L17" t="s">
         <v>25</v>
       </c>
@@ -34317,18 +34339,28 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="L18" s="15">
-        <v>467.12083225999999</v>
-      </c>
-      <c r="M18" s="12">
-        <v>675.92151745000001</v>
-      </c>
-      <c r="U18" s="12">
-        <v>5.36514E-3</v>
-      </c>
-      <c r="V18" s="12">
-        <v>7.0187899999999998E-2</v>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="L18" s="14">
+        <f>O18*-1</f>
+        <v>555.87742317208119</v>
+      </c>
+      <c r="M18">
+        <f>P18</f>
+        <v>657.53039648837876</v>
+      </c>
+      <c r="O18" s="14" cm="1">
+        <f t="array" ref="O18:P18">LINEST(C5:C10,D5:D10,1,0)</f>
+        <v>-555.87742317208119</v>
+      </c>
+      <c r="P18">
+        <v>657.53039648837876</v>
+      </c>
+      <c r="U18" s="14" cm="1">
+        <f t="array" ref="U18:V18">LINEST(E5:E10,C5:C10)</f>
+        <v>5.4239906588183602E-3</v>
+      </c>
+      <c r="V18">
+        <v>6.2767245073086286E-2</v>
       </c>
       <c r="AD18">
         <v>3.233449E-2</v>
@@ -34337,7 +34369,7 @@
         <v>2.5242730000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -34360,18 +34392,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>496.57073580000002</v>
+        <v>547.86278470000002</v>
       </c>
       <c r="C20">
-        <v>611.41472150000004</v>
-      </c>
-      <c r="D20">
-        <v>5.4126499999999998E-3</v>
-      </c>
-      <c r="E20">
-        <v>3.7247339999999997E-2</v>
+        <v>642.75275320000003</v>
+      </c>
+      <c r="D20" s="12">
+        <v>5.4212100000000001E-3</v>
+      </c>
+      <c r="E20" s="13">
+        <v>5.778585E-2</v>
       </c>
       <c r="G20" s="2">
         <v>6.1754690000000001E-2</v>
@@ -34380,7 +34412,7 @@
         <v>6.370294E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>1</v>
       </c>
@@ -34406,23 +34438,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2">
-        <v>106.4</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="C23" s="2">
-        <v>99.9</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2">
         <f>($C$20-A23)/$B$20</f>
-        <v>1.1809288772429509</v>
+        <v>1.1184420083133273</v>
       </c>
       <c r="E23" s="2">
         <f>(B23*$D$20)+$E$20</f>
-        <v>0.61315330000000001</v>
+        <v>0.25457577300000001</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -34431,23 +34463,23 @@
         <v>6.370294E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>100</v>
       </c>
       <c r="B24" s="2">
-        <v>184.6</v>
+        <v>95.4</v>
       </c>
       <c r="C24" s="2">
-        <v>178.5</v>
+        <v>91.2</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" ref="D24:D28" si="3">($C$20-A24)/$B$20</f>
-        <v>1.0298929933438095</v>
+        <v>0.99067278953287885</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" ref="E24:E28" si="4">(B24*$D$20)+$E$20</f>
-        <v>1.0364225299999998</v>
+        <v>0.57496928400000002</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -34456,23 +34488,23 @@
         <v>6.370294E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>200</v>
       </c>
       <c r="B25" s="2">
-        <v>284.2</v>
+        <v>202.1</v>
       </c>
       <c r="C25" s="2">
-        <v>279.10000000000002</v>
+        <v>195</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="3"/>
-        <v>0.82851181481162106</v>
+        <v>0.80814533413223821</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="4"/>
-        <v>1.5755224699999999</v>
+        <v>1.1534123909999998</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -34481,23 +34513,23 @@
         <v>6.370294E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>300</v>
       </c>
       <c r="B26" s="2">
-        <v>384.3</v>
+        <v>302.5</v>
       </c>
       <c r="C26" s="2">
-        <v>380.5</v>
+        <v>296.10000000000002</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="3"/>
-        <v>0.62713063627943266</v>
+        <v>0.62561787873159769</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="4"/>
-        <v>2.1173287350000001</v>
+        <v>1.6977018749999999</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -34506,45 +34538,45 @@
         <v>6.370294E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>400</v>
       </c>
       <c r="B27" s="2">
-        <v>478.1</v>
+        <v>403.1</v>
       </c>
       <c r="C27" s="2">
-        <v>476.1</v>
+        <v>398</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="3"/>
-        <v>0.42574945774724415</v>
+        <v>0.44309042333095711</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="4"/>
-        <v>2.6250353049999999</v>
+        <v>2.2430756010000001</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>450</v>
       </c>
       <c r="B28" s="2">
-        <v>513.1</v>
+        <v>450.3</v>
       </c>
       <c r="C28" s="2">
-        <v>512.20000000000005</v>
+        <v>446</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="3"/>
-        <v>0.3250588684811499</v>
+        <v>0.35182669563063684</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="4"/>
-        <v>2.8144780549999999</v>
+        <v>2.4989567130000001</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="L35" t="s">
         <v>25</v>
       </c>
@@ -34564,18 +34596,28 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="L36" s="15">
-        <v>486.59809357</v>
-      </c>
-      <c r="M36" s="12">
-        <v>679.28940821000003</v>
-      </c>
-      <c r="U36">
-        <v>5.34002E-3</v>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="L36" s="14">
+        <f>O36*-1</f>
+        <v>549.49713199508096</v>
+      </c>
+      <c r="M36">
+        <f>P36</f>
+        <v>639.81766382279898</v>
+      </c>
+      <c r="O36" s="14" cm="1">
+        <f t="array" ref="O36:P36">LINEST(C23:C28,D23:D28,1,0)</f>
+        <v>-549.49713199508096</v>
+      </c>
+      <c r="P36">
+        <v>639.81766382279898</v>
+      </c>
+      <c r="U36" s="14" cm="1">
+        <f t="array" ref="U36:V36">LINEST(E23:E28,C23:C28)</f>
+        <v>5.400886056462547E-3</v>
       </c>
       <c r="V36">
-        <v>8.2577570000000003E-2</v>
+        <v>9.3797026505009207E-2</v>
       </c>
       <c r="AD36">
         <v>3.229311E-2</v>
@@ -34584,7 +34626,7 @@
         <v>2.6093709999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
@@ -34607,18 +34649,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B38">
-        <v>496.57073580000002</v>
+        <v>547.86278470000002</v>
       </c>
       <c r="C38">
-        <v>611.41472150000004</v>
-      </c>
-      <c r="D38">
-        <v>5.4126499999999998E-3</v>
-      </c>
-      <c r="E38">
-        <v>3.7247339999999997E-2</v>
+        <v>642.75275320000003</v>
+      </c>
+      <c r="D38" s="12">
+        <v>5.4212100000000001E-3</v>
+      </c>
+      <c r="E38" s="13">
+        <v>5.778585E-2</v>
       </c>
       <c r="G38" s="2">
         <v>6.1754690000000001E-2</v>
@@ -34627,7 +34669,7 @@
         <v>6.370294E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>1</v>
       </c>
@@ -34653,23 +34695,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B41" s="2">
-        <v>112.6</v>
+        <v>31.7</v>
       </c>
       <c r="C41" s="2">
-        <v>111.8</v>
+        <v>32</v>
       </c>
       <c r="D41" s="2">
         <f t="shared" ref="D41:D46" si="6">($C$38-A41)/$B$38</f>
-        <v>1.1809288772429509</v>
+        <v>1.1184420083133273</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" ref="E41:E46" si="7">(B41*$D$38)+$E$38</f>
-        <v>0.64671172999999993</v>
+        <v>0.22963820700000001</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -34678,23 +34720,23 @@
         <v>6.370294E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>100</v>
       </c>
       <c r="B42" s="2">
-        <v>191.3</v>
+        <v>103.4</v>
       </c>
       <c r="C42" s="2">
-        <v>189.4</v>
+        <v>102.3</v>
       </c>
       <c r="D42" s="2">
         <f t="shared" si="6"/>
-        <v>1.0298929933438095</v>
+        <v>0.99067278953287885</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" si="7"/>
-        <v>1.072687285</v>
+        <v>0.6183389640000001</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -34703,23 +34745,23 @@
         <v>6.370294E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>200</v>
       </c>
       <c r="B43" s="2">
-        <v>286.2</v>
+        <v>206.8</v>
       </c>
       <c r="C43" s="2">
-        <v>282.8</v>
+        <v>203.6</v>
       </c>
       <c r="D43" s="2">
         <f t="shared" si="6"/>
-        <v>0.82851181481162106</v>
+        <v>0.80814533413223821</v>
       </c>
       <c r="E43" s="2">
         <f t="shared" si="7"/>
-        <v>1.5863477699999999</v>
+        <v>1.1788920780000001</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -34728,23 +34770,23 @@
         <v>6.370294E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>300</v>
       </c>
       <c r="B44" s="2">
-        <v>389.1</v>
+        <v>304.89999999999998</v>
       </c>
       <c r="C44" s="2">
-        <v>384.2</v>
+        <v>300.3</v>
       </c>
       <c r="D44" s="2">
         <f t="shared" si="6"/>
-        <v>0.62713063627943266</v>
+        <v>0.62561787873159769</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" si="7"/>
-        <v>2.1433094549999998</v>
+        <v>1.7107127789999999</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -34753,45 +34795,45 @@
         <v>6.370294E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>400</v>
       </c>
       <c r="B45" s="2">
-        <v>482.6</v>
+        <v>405.3</v>
       </c>
       <c r="C45" s="2">
-        <v>477.3</v>
+        <v>399.2</v>
       </c>
       <c r="D45" s="2">
         <f t="shared" si="6"/>
-        <v>0.42574945774724415</v>
+        <v>0.44309042333095711</v>
       </c>
       <c r="E45" s="2">
         <f t="shared" si="7"/>
-        <v>2.6493922300000001</v>
+        <v>2.2550022630000002</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>450</v>
       </c>
       <c r="B46" s="2">
-        <v>516.20000000000005</v>
+        <v>451.1</v>
       </c>
       <c r="C46" s="2">
-        <v>512.1</v>
+        <v>445</v>
       </c>
       <c r="D46" s="2">
         <f t="shared" si="6"/>
-        <v>0.3250588684811499</v>
+        <v>0.35182669563063684</v>
       </c>
       <c r="E46" s="2">
         <f t="shared" si="7"/>
-        <v>2.83125727</v>
+        <v>2.5032936810000002</v>
       </c>
     </row>
-    <row r="53" spans="12:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="12:31" x14ac:dyDescent="0.25">
       <c r="L53" t="s">
         <v>25</v>
       </c>
@@ -34811,18 +34853,28 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="12:31" x14ac:dyDescent="0.2">
-      <c r="L54" s="15">
-        <v>472.38490657</v>
-      </c>
-      <c r="M54" s="12">
-        <v>674.04215452000005</v>
-      </c>
-      <c r="U54">
-        <v>5.4665099999999999E-3</v>
+    <row r="54" spans="12:31" x14ac:dyDescent="0.25">
+      <c r="L54" s="14">
+        <f>O54*-1</f>
+        <v>539.69632882974884</v>
+      </c>
+      <c r="M54">
+        <f>P54</f>
+        <v>637.24868444989102</v>
+      </c>
+      <c r="O54" s="14" cm="1">
+        <f t="array" ref="O54:P54">LINEST(C41:C46,D41:D46,1,0)</f>
+        <v>-539.69632882974884</v>
+      </c>
+      <c r="P54">
+        <v>637.24868444989102</v>
+      </c>
+      <c r="U54" s="14" cm="1">
+        <f t="array" ref="U54:V54">LINEST(E41:E46,C41:C46)</f>
+        <v>5.5078832053894614E-3</v>
       </c>
       <c r="V54">
-        <v>3.8078500000000001E-2</v>
+        <v>5.5165318055110379E-2</v>
       </c>
       <c r="AD54">
         <v>3.2163619999999997E-2</v>
@@ -34846,13 +34898,13 @@
       <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -34875,7 +34927,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>496.57073580000002</v>
       </c>
@@ -34895,7 +34947,7 @@
         <v>6.370294E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -34921,7 +34973,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>25</v>
       </c>
@@ -34938,7 +34990,7 @@
         <v>6.370294E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>100</v>
       </c>
@@ -34955,7 +35007,7 @@
         <v>6.370294E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>200</v>
       </c>
@@ -34972,7 +35024,7 @@
         <v>6.370294E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>300</v>
       </c>
@@ -34989,7 +35041,7 @@
         <v>6.370294E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>400</v>
       </c>
@@ -35002,7 +35054,7 @@
         <v>3.7247339999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>450</v>
       </c>
@@ -35015,12 +35067,12 @@
         <v>3.7247339999999997E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="L17" t="s">
         <v>25</v>
       </c>
@@ -35040,7 +35092,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="L18">
         <v>483.74161550000002</v>
       </c>
@@ -35060,7 +35112,7 @@
         <v>0.17908824000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -35083,7 +35135,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>496.57073580000002</v>
       </c>
@@ -35103,7 +35155,7 @@
         <v>6.370294E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>1</v>
       </c>
@@ -35129,7 +35181,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>25</v>
       </c>
@@ -35146,7 +35198,7 @@
         <v>6.370294E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>100</v>
       </c>
@@ -35163,7 +35215,7 @@
         <v>6.370294E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>200</v>
       </c>
@@ -35180,7 +35232,7 @@
         <v>6.370294E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>300</v>
       </c>
@@ -35197,7 +35249,7 @@
         <v>6.370294E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>400</v>
       </c>
@@ -35210,7 +35262,7 @@
         <v>3.7247339999999997E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>450</v>
       </c>
@@ -35223,7 +35275,7 @@
         <v>3.7247339999999997E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="L35" t="s">
         <v>25</v>
       </c>
@@ -35243,7 +35295,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="L36">
         <v>488.73603487999998</v>
       </c>
@@ -35263,7 +35315,7 @@
         <v>9.5055399999999998E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
@@ -35286,7 +35338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>496.57073580000002</v>
       </c>
@@ -35306,7 +35358,7 @@
         <v>6.370294E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>1</v>
       </c>
@@ -35332,7 +35384,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>25</v>
       </c>
@@ -35349,7 +35401,7 @@
         <v>6.370294E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>100</v>
       </c>
@@ -35366,7 +35418,7 @@
         <v>6.370294E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>200</v>
       </c>
@@ -35383,7 +35435,7 @@
         <v>6.370294E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>300</v>
       </c>
@@ -35400,7 +35452,7 @@
         <v>6.370294E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>400</v>
       </c>
@@ -35413,7 +35465,7 @@
         <v>3.7247339999999997E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>450</v>
       </c>
@@ -35426,7 +35478,7 @@
         <v>3.7247339999999997E-2</v>
       </c>
     </row>
-    <row r="53" spans="12:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="12:31" x14ac:dyDescent="0.25">
       <c r="L53" t="s">
         <v>25</v>
       </c>
@@ -35446,7 +35498,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="12:31" x14ac:dyDescent="0.2">
+    <row r="54" spans="12:31" x14ac:dyDescent="0.25">
       <c r="L54">
         <v>499.06205584000003</v>
       </c>
@@ -35466,16 +35518,16 @@
         <v>8.044519E-2</v>
       </c>
     </row>
-    <row r="64" spans="12:31" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="19:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="12:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="19:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S65" s="3"/>
       <c r="T65" s="4"/>
     </row>
-    <row r="66" spans="19:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="19:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S66" s="5"/>
       <c r="T66" s="6"/>
     </row>
-    <row r="67" spans="19:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="19:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S67" s="5"/>
       <c r="T67" s="6"/>
     </row>
@@ -35494,12 +35546,12 @@
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -35522,7 +35574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="2">
         <v>547.86313380000001</v>
       </c>
@@ -35542,7 +35594,7 @@
         <v>0.15569659999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -35568,7 +35620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>50</v>
       </c>
@@ -35589,7 +35641,7 @@
         <v>0.15569659999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>100</v>
       </c>
@@ -35610,7 +35662,7 @@
         <v>0.15569659999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>200</v>
       </c>
@@ -35631,7 +35683,7 @@
         <v>0.15569659999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>300</v>
       </c>
@@ -35652,7 +35704,7 @@
         <v>0.15569659999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>400</v>
       </c>
@@ -35667,7 +35719,7 @@
         <v>5.6440999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>500</v>
       </c>
@@ -35682,7 +35734,7 @@
         <v>5.6440999999999998E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="L17" t="s">
         <v>25</v>
       </c>
@@ -35702,7 +35754,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -35725,7 +35777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>529.32148510000002</v>
       </c>
@@ -35745,7 +35797,7 @@
         <v>0.15569659999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>1</v>
       </c>
@@ -35771,7 +35823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>50</v>
       </c>
@@ -35788,7 +35840,7 @@
         <v>0.15569659999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>100</v>
       </c>
@@ -35805,7 +35857,7 @@
         <v>0.15569659999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>200</v>
       </c>
@@ -35822,7 +35874,7 @@
         <v>0.15569659999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>300</v>
       </c>
@@ -35839,7 +35891,7 @@
         <v>0.15569659999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>400</v>
       </c>
@@ -35852,7 +35904,7 @@
         <v>5.6440999999999998E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>500</v>
       </c>
@@ -35865,7 +35917,7 @@
         <v>5.6440999999999998E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="L35" t="s">
         <v>25</v>
       </c>
@@ -35885,7 +35937,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
@@ -35908,7 +35960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <v>528.74599780000005</v>
       </c>
@@ -35928,7 +35980,7 @@
         <v>0.15569659999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>1</v>
       </c>
@@ -35954,7 +36006,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>50</v>
       </c>
@@ -35975,7 +36027,7 @@
         <v>0.15569659999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>100</v>
       </c>
@@ -35996,7 +36048,7 @@
         <v>0.15569659999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>200</v>
       </c>
@@ -36017,7 +36069,7 @@
         <v>0.15569659999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>300</v>
       </c>
@@ -36038,7 +36090,7 @@
         <v>0.15569659999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>400</v>
       </c>
@@ -36053,7 +36105,7 @@
         <v>5.6440999999999998E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>500</v>
       </c>
@@ -36068,7 +36120,7 @@
         <v>5.6440999999999998E-2</v>
       </c>
     </row>
-    <row r="53" spans="12:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="12:31" x14ac:dyDescent="0.25">
       <c r="L53" t="s">
         <v>25</v>
       </c>
@@ -36100,20 +36152,20 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
@@ -36136,269 +36188,269 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="15">
         <f>'HV1'!L18</f>
-        <v>467.12083225999999</v>
-      </c>
-      <c r="C2" s="16">
+        <v>555.87742317208119</v>
+      </c>
+      <c r="C2" s="15">
         <f>'HV1'!M18</f>
-        <v>675.92151745000001</v>
-      </c>
-      <c r="D2" s="16">
+        <v>657.53039648837876</v>
+      </c>
+      <c r="D2" s="15">
         <f>'HV1'!U18</f>
-        <v>5.36514E-3</v>
-      </c>
-      <c r="E2" s="16">
+        <v>5.4239906588183602E-3</v>
+      </c>
+      <c r="E2" s="15">
         <f>'HV1'!V18</f>
-        <v>7.0187899999999998E-2</v>
-      </c>
-      <c r="F2" s="16">
+        <v>6.2767245073086286E-2</v>
+      </c>
+      <c r="F2" s="15">
         <f>'HV1'!AD18</f>
         <v>3.233449E-2</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="15">
         <f>'HV1'!AE18</f>
         <v>2.5242730000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="16">
         <f>'HV1'!L36</f>
-        <v>486.59809357</v>
-      </c>
-      <c r="C3" s="17">
+        <v>549.49713199508096</v>
+      </c>
+      <c r="C3" s="16">
         <f>'HV1'!M36</f>
-        <v>679.28940821000003</v>
-      </c>
-      <c r="D3" s="17">
+        <v>639.81766382279898</v>
+      </c>
+      <c r="D3" s="16">
         <f>'HV1'!U36</f>
-        <v>5.34002E-3</v>
-      </c>
-      <c r="E3" s="17">
+        <v>5.400886056462547E-3</v>
+      </c>
+      <c r="E3" s="16">
         <f>'HV1'!V36</f>
-        <v>8.2577570000000003E-2</v>
-      </c>
-      <c r="F3" s="17">
+        <v>9.3797026505009207E-2</v>
+      </c>
+      <c r="F3" s="16">
         <f>'HV1'!AD36</f>
         <v>3.229311E-2</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="16">
         <f>'HV1'!AE36</f>
         <v>2.6093709999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <f>'HV1'!L54</f>
-        <v>472.38490657</v>
-      </c>
-      <c r="C4" s="17">
+        <v>539.69632882974884</v>
+      </c>
+      <c r="C4" s="16">
         <f>'HV1'!M54</f>
-        <v>674.04215452000005</v>
-      </c>
-      <c r="D4" s="17">
+        <v>637.24868444989102</v>
+      </c>
+      <c r="D4" s="16">
         <f>'HV1'!U54</f>
-        <v>5.4665099999999999E-3</v>
-      </c>
-      <c r="E4" s="17">
+        <v>5.5078832053894614E-3</v>
+      </c>
+      <c r="E4" s="16">
         <f>'HV1'!V54</f>
-        <v>3.8078500000000001E-2</v>
-      </c>
-      <c r="F4" s="17">
+        <v>5.5165318055110379E-2</v>
+      </c>
+      <c r="F4" s="16">
         <f>'HV1'!AD54</f>
         <v>3.2163619999999997E-2</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="16">
         <f>'HV1'!AE54</f>
         <v>5.0859109999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <f>'HV2'!L18</f>
         <v>483.74161550000002</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <f>'HV2'!M18</f>
         <v>591.05310112999996</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <f>'HV2'!U18</f>
         <v>5.4416999999999998E-3</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <f>'HV2'!V18</f>
         <v>5.9830880000000003E-2</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <f>'HV2'!AD18</f>
         <v>0.16231470000000001</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="15">
         <f>'HV2'!AE36</f>
         <v>9.5055399999999998E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="16">
         <f>'HV2'!L36</f>
         <v>488.73603487999998</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <f>'HV2'!M36</f>
         <v>605.86338649000004</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="17">
         <f>'HV2'!U36</f>
         <v>5.3692899999999997E-3</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <f>'HV2'!V36</f>
         <v>7.2362850000000006E-2</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <f>'HV2'!AD18</f>
         <v>0.16231470000000001</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="16">
         <f>'HV2'!AE18</f>
         <v>0.17908824000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="16">
         <f>'HV2'!L54</f>
         <v>499.06205584000003</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="16">
         <f>'HV2'!M54</f>
         <v>619.74886147999996</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <f>'HV2'!U54</f>
         <v>5.4236600000000003E-3</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <f>'HV2'!V54</f>
         <v>5.7833210000000003E-2</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <f>'HV2'!AD54</f>
         <v>0.16179969</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="16">
         <f>'HV2'!AE54</f>
         <v>8.044519E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>1</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="15">
         <f>'HV3'!L18</f>
         <v>0</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="15">
         <f>'HV3'!M18</f>
         <v>0</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <f>'HV3'!U18</f>
         <v>0</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <f>'HV3'!V18</f>
         <v>0</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <f>'HV3'!AD18</f>
         <v>0</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="15">
         <f>'HV3'!AE18</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>2</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="16">
         <f>'HV3'!L36</f>
         <v>0</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="16">
         <f>'HV3'!M36</f>
         <v>0</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="16">
         <f>'HV3'!U36</f>
         <v>0</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="16">
         <f>'HV3'!V36</f>
         <v>0</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="16">
         <f>'HV3'!AD36</f>
         <v>0</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="16">
         <f>'HV3'!AE36</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>3</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="16">
         <f>'HV3'!L54</f>
         <v>0</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <f>'HV3'!M54</f>
         <v>0</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="16">
         <f>'HV3'!U54</f>
         <v>0</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="16">
         <f>'HV3'!V54</f>
         <v>0</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <f>'HV3'!AD54</f>
         <v>0</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <f>'HV3'!AE54</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>16</v>
       </c>
@@ -36421,25 +36473,25 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="2">
         <f t="shared" ref="B13:G13" si="0">AVERAGE(B2:B10)</f>
-        <v>321.96039317999998</v>
+        <v>346.29006557965681</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>427.32426992000006</v>
+        <v>416.80689931789652</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>3.6007022222222223E-3</v>
+        <v>3.6186011022967071E-3</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>4.2318990000000001E-2</v>
+        <v>4.4639614403689548E-2</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
@@ -36450,13 +36502,13 @@
         <v>4.1248279999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="2">
         <f t="shared" ref="B14:G14" si="1">MEDIAN(B2:B10)</f>
-        <v>472.38490657</v>
+        <v>488.73603487999998</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="1"/>
@@ -36464,7 +36516,7 @@
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>5.36514E-3</v>
+        <v>5.400886056462547E-3</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="1"/>
@@ -36479,8 +36531,8 @@
         <v>2.5242730000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>16</v>
       </c>
@@ -36503,25 +36555,25 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="2">
         <f>AVERAGE(B2:B4)</f>
-        <v>475.36794413333337</v>
+        <v>548.35696133230374</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" ref="C21:G21" si="2">AVERAGE(C2:C4)</f>
-        <v>676.41769339333348</v>
+        <v>644.86558158702292</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="2"/>
-        <v>5.3905566666666667E-3</v>
+        <v>5.4442533068901231E-3</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="2"/>
-        <v>6.3614656666666672E-2</v>
+        <v>7.0576529877735286E-2</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="2"/>
@@ -36532,25 +36584,25 @@
         <v>3.4065183333333332E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="2">
         <f>MEDIAN(B2:B4)</f>
-        <v>472.38490657</v>
+        <v>549.49713199508096</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" ref="C22:G22" si="3">MEDIAN(C2:C4)</f>
-        <v>675.92151745000001</v>
+        <v>639.81766382279898</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="3"/>
-        <v>5.36514E-3</v>
+        <v>5.4239906588183602E-3</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="3"/>
-        <v>7.0187899999999998E-2</v>
+        <v>6.2767245073086286E-2</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="3"/>
@@ -36574,19 +36626,19 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" customWidth="1"/>
-    <col min="12" max="12" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -36601,7 +36653,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="2">
         <v>84.872727299999994</v>
       </c>
@@ -36613,7 +36665,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -36631,7 +36683,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>22</v>
       </c>
@@ -36647,7 +36699,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>40</v>
       </c>
@@ -36664,7 +36716,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>50</v>
       </c>
@@ -36681,7 +36733,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>70</v>
       </c>
@@ -36698,7 +36750,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>85</v>
       </c>
@@ -36712,7 +36764,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>100</v>
       </c>
@@ -36726,7 +36778,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="L17" t="s">
         <v>25</v>
       </c>
@@ -36746,7 +36798,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="L18" s="1">
         <v>496.42443255000001</v>
       </c>
@@ -36766,7 +36818,7 @@
         <v>2.5242730000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -36789,7 +36841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>511.81824260000002</v>
       </c>
@@ -36809,7 +36861,7 @@
         <v>6.370294E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>1</v>
       </c>
@@ -36835,7 +36887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>50</v>
       </c>
@@ -36864,7 +36916,7 @@
         <v>0.62196533759999995</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>100</v>
       </c>
@@ -36893,7 +36945,7 @@
         <v>1.2395122375999998</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>200</v>
       </c>
@@ -36922,7 +36974,7 @@
         <v>2.0466460359000003</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>300</v>
       </c>
@@ -36951,7 +37003,7 @@
         <v>2.9519697913000003</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>400</v>
       </c>
@@ -36970,7 +37022,7 @@
         <v>2.106960086</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>500</v>
       </c>
@@ -36989,7 +37041,7 @@
         <v>2.6218054940000002</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="L35" t="s">
         <v>25</v>
       </c>
@@ -37009,7 +37061,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="L36" s="1">
         <v>456.95974044000002</v>
       </c>
@@ -37029,7 +37081,7 @@
         <v>2.6093709999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
@@ -37052,7 +37104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <v>511.81824260000002</v>
       </c>
@@ -37072,7 +37124,7 @@
         <v>6.370294E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>1</v>
       </c>
@@ -37098,7 +37150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>50</v>
       </c>
@@ -37127,7 +37179,7 @@
         <v>0.65716551089999997</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>100</v>
       </c>
@@ -37156,7 +37208,7 @@
         <v>1.3290565380999999</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>200</v>
       </c>
@@ -37185,7 +37237,7 @@
         <v>2.1497763682000004</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>300</v>
       </c>
@@ -37214,7 +37266,7 @@
         <v>2.9729663859000004</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>400</v>
       </c>
@@ -37233,7 +37285,7 @@
         <v>2.1642853100000004</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>500</v>
       </c>
@@ -37252,7 +37304,7 @@
         <v>2.5796227820000004</v>
       </c>
     </row>
-    <row r="53" spans="12:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="12:31" x14ac:dyDescent="0.25">
       <c r="L53" t="s">
         <v>25</v>
       </c>
@@ -37272,7 +37324,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="12:31" x14ac:dyDescent="0.2">
+    <row r="54" spans="12:31" x14ac:dyDescent="0.25">
       <c r="L54" s="1">
         <v>471.31869606999999</v>
       </c>

--- a/HV_Power_Supply_PcApp/HV_Power_Supply_PcApp/bin/Debug/Kalibrace_2024.xlsx
+++ b/HV_Power_Supply_PcApp/HV_Power_Supply_PcApp/bin/Debug/Kalibrace_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CODE_temp\Atlas_HV_Power_Supply_PcApp\HV_Power_Supply_PcApp\HV_Power_Supply_PcApp\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7B66CB-ECE3-43C4-9248-9CACB3178F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E27B5E-67A8-43B9-BCEE-3C166CDCB687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{42646E07-1115-40A8-A93A-C57D4D85C566}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{42646E07-1115-40A8-A93A-C57D4D85C566}"/>
   </bookViews>
   <sheets>
     <sheet name="HV1" sheetId="1" r:id="rId1"/>
@@ -152,9 +152,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.0000000"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="167" formatCode="0.000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -322,18 +322,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="7"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -512,22 +512,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.1184420083133273</c:v>
+                  <c:v>1.0819324402662849</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99067278953287885</c:v>
+                  <c:v>0.9906690482761441</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.80814533413223821</c:v>
+                  <c:v>0.80814226429586289</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.62561787873159769</c:v>
+                  <c:v>0.62561548031558156</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.44309042333095711</c:v>
+                  <c:v>0.44308869633530029</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.35182669563063684</c:v>
+                  <c:v>0.35182530434515963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -539,22 +539,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>34.799999999999997</c:v>
+                  <c:v>52.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>106.1</c:v>
+                  <c:v>105.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>209.8</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>311.2</c:v>
+                  <c:v>310.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>413.1</c:v>
+                  <c:v>412.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>458.9</c:v>
+                  <c:v>458.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -906,22 +906,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.1809288772429509</c:v>
+                  <c:v>1.1275641362613551</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0298929933438095</c:v>
+                  <c:v>0.9906690482761441</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82851181481162106</c:v>
+                  <c:v>0.80814226429586289</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.62713063627943266</c:v>
+                  <c:v>0.62561548031558156</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.42574945774724415</c:v>
+                  <c:v>0.44308869633530029</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3250588684811499</c:v>
+                  <c:v>0.35182530434515963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1658,22 +1658,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.1809288772429509</c:v>
+                  <c:v>1.1275641362613551</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0298929933438095</c:v>
+                  <c:v>0.9906690482761441</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82851181481162106</c:v>
+                  <c:v>0.80814226429586289</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.62713063627943266</c:v>
+                  <c:v>0.62561548031558156</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.42574945774724415</c:v>
+                  <c:v>0.44308869633530029</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3250588684811499</c:v>
+                  <c:v>0.35182530434515963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2057,22 +2057,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.7247339999999997E-2</c:v>
+                  <c:v>5.7785999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7247339999999997E-2</c:v>
+                  <c:v>5.7785999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7247339999999997E-2</c:v>
+                  <c:v>5.7785999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.7247339999999997E-2</c:v>
+                  <c:v>5.7785999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7247339999999997E-2</c:v>
+                  <c:v>5.7785999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7247339999999997E-2</c:v>
+                  <c:v>5.7785999999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2831,22 +2831,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.7247339999999997E-2</c:v>
+                  <c:v>5.7785999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7247339999999997E-2</c:v>
+                  <c:v>5.7785999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7247339999999997E-2</c:v>
+                  <c:v>5.7785999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.7247339999999997E-2</c:v>
+                  <c:v>5.7785999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7247339999999997E-2</c:v>
+                  <c:v>5.7785999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7247339999999997E-2</c:v>
+                  <c:v>5.7785999999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,16 +3215,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.370294E-2</c:v>
+                  <c:v>6.1899999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.370294E-2</c:v>
+                  <c:v>6.1899999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.370294E-2</c:v>
+                  <c:v>6.1899999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.370294E-2</c:v>
+                  <c:v>6.1899999999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3971,16 +3971,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.370294E-2</c:v>
+                  <c:v>6.1899999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.370294E-2</c:v>
+                  <c:v>6.1899999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.370294E-2</c:v>
+                  <c:v>6.1899999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.370294E-2</c:v>
+                  <c:v>6.1899999999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4714,22 +4714,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.1184420083133273</c:v>
+                  <c:v>1.0819324402662849</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99067278953287885</c:v>
+                  <c:v>0.9906690482761441</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.80814533413223821</c:v>
+                  <c:v>0.80814226429586289</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.62561787873159769</c:v>
+                  <c:v>0.62561548031558156</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.44309042333095711</c:v>
+                  <c:v>0.44308869633530029</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.35182669563063684</c:v>
+                  <c:v>0.35182530434515963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4741,22 +4741,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
+                  <c:v>35.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91.2</c:v>
+                  <c:v>90.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>195</c:v>
+                  <c:v>194.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>296.10000000000002</c:v>
+                  <c:v>295.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>398</c:v>
+                  <c:v>397.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>446</c:v>
+                  <c:v>445.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8972,22 +8972,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.1184420083133273</c:v>
+                  <c:v>1.0819324402662849</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99067278953287885</c:v>
+                  <c:v>0.9906690482761441</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.80814533413223821</c:v>
+                  <c:v>0.80814226429586289</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.62561787873159769</c:v>
+                  <c:v>0.62561548031558156</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.44309042333095711</c:v>
+                  <c:v>0.44308869633530029</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.35182669563063684</c:v>
+                  <c:v>0.35182530434515963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8999,22 +8999,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>44.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>102.3</c:v>
+                  <c:v>101.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>203.6</c:v>
+                  <c:v>201.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300.3</c:v>
+                  <c:v>299.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>399.2</c:v>
+                  <c:v>398.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>445</c:v>
+                  <c:v>444.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11390,22 +11390,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>34.799999999999997</c:v>
+                  <c:v>52.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>106.1</c:v>
+                  <c:v>105.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>209.8</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>311.2</c:v>
+                  <c:v>310.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>413.1</c:v>
+                  <c:v>412.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>458.9</c:v>
+                  <c:v>458.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11417,22 +11417,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.249696684</c:v>
+                  <c:v>0.34564109999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.63785532</c:v>
+                  <c:v>0.63458040000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2027454019999999</c:v>
+                  <c:v>1.1967380999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7535403380000001</c:v>
+                  <c:v>1.7469695999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3032510319999999</c:v>
+                  <c:v>2.2977431999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5493739660000001</c:v>
+                  <c:v>2.5443986999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11798,22 +11798,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
+                  <c:v>35.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91.2</c:v>
+                  <c:v>90.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>195</c:v>
+                  <c:v>194.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>296.10000000000002</c:v>
+                  <c:v>295.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>398</c:v>
+                  <c:v>397.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>446</c:v>
+                  <c:v>445.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11825,22 +11825,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.25457577300000001</c:v>
+                  <c:v>0.2914311</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.57496928400000002</c:v>
+                  <c:v>0.58795979999999992</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1534123909999998</c:v>
+                  <c:v>1.1484911999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6977018749999999</c:v>
+                  <c:v>1.6922174999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2430756010000001</c:v>
+                  <c:v>2.2364858999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4989567130000001</c:v>
+                  <c:v>2.4928992000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12200,22 +12200,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>44.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>102.3</c:v>
+                  <c:v>101.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>203.6</c:v>
+                  <c:v>201.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300.3</c:v>
+                  <c:v>299.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>399.2</c:v>
+                  <c:v>398.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>445</c:v>
+                  <c:v>444.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12227,22 +12227,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.22963820700000001</c:v>
+                  <c:v>0.30118889999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6183389640000001</c:v>
+                  <c:v>0.61235429999999991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1788920780000001</c:v>
+                  <c:v>1.1685488999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7107127789999999</c:v>
+                  <c:v>1.7025173999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2550022630000002</c:v>
+                  <c:v>2.2473278999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5032936810000002</c:v>
+                  <c:v>2.4977781000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12601,6 +12601,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>113.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>127.8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -12611,16 +12623,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.1899999999999997E-2</c:v>
+                  <c:v>0.57705999999999991</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.1899999999999997E-2</c:v>
+                  <c:v>1.6297359999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.1899999999999997E-2</c:v>
+                  <c:v>2.707684</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1899999999999997E-2</c:v>
+                  <c:v>2.8943080000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12979,6 +12991,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>111.2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -12989,16 +13013,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.370294E-2</c:v>
+                  <c:v>0.54789999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.370294E-2</c:v>
+                  <c:v>1.76776</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.370294E-2</c:v>
+                  <c:v>2.8700079999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.370294E-2</c:v>
+                  <c:v>3.2986599999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13357,6 +13381,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101.2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -13367,16 +13403,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.370294E-2</c:v>
+                  <c:v>0.55081599999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.370294E-2</c:v>
+                  <c:v>1.7288799999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.370294E-2</c:v>
+                  <c:v>2.3023600000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.370294E-2</c:v>
+                  <c:v>3.2140960000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -32749,14 +32785,14 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>299356</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>40021</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>289831</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>34699</xdr:rowOff>
+      <xdr:rowOff>101934</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -33790,9 +33826,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 –⁠ 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -33830,7 +33866,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 –⁠ 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -33936,7 +33972,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 –⁠ 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -34078,7 +34114,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -34088,8 +34124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E729D20-13F7-4C55-8C83-89C49955F856}">
   <dimension ref="A1:AE54"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView topLeftCell="F19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD59" sqref="AD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34105,6 +34141,7 @@
     <col min="15" max="15" width="14.85546875" customWidth="1"/>
     <col min="21" max="21" width="17.5703125" customWidth="1"/>
     <col min="22" max="22" width="18.42578125" customWidth="1"/>
+    <col min="30" max="30" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -34132,19 +34169,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>547.86278470000002</v>
+        <v>547.86479999999995</v>
       </c>
       <c r="C2">
-        <v>642.75275320000003</v>
+        <v>642.7527</v>
       </c>
       <c r="D2" s="12">
-        <v>5.4212100000000001E-3</v>
+        <v>5.4209999999999996E-3</v>
       </c>
       <c r="E2" s="13">
-        <v>5.778585E-2</v>
+        <v>5.7785999999999997E-2</v>
       </c>
       <c r="G2" s="2">
-        <v>9.9720000000000003E-2</v>
+        <v>9.7199999999999995E-2</v>
       </c>
       <c r="H2" s="2">
         <v>6.1899999999999997E-2</v>
@@ -34178,27 +34215,31 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2">
-        <v>35.4</v>
+        <v>53.1</v>
       </c>
       <c r="C5" s="2">
-        <v>34.799999999999997</v>
+        <v>52.5</v>
       </c>
       <c r="D5" s="2">
         <f>($C$2-A5)/$B$2</f>
-        <v>1.1184420083133273</v>
+        <v>1.0819324402662849</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" ref="E5:E10" si="0">(B5*$D$2)+$E$2</f>
-        <v>0.249696684</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+        <v>0.34564109999999998</v>
+      </c>
+      <c r="G5" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>18.3</v>
+      </c>
       <c r="I5" s="2">
         <f>(G5*$G$2)+$H$2</f>
-        <v>6.1899999999999997E-2</v>
+        <v>0.57705999999999991</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -34206,24 +34247,28 @@
         <v>100</v>
       </c>
       <c r="B6" s="2">
-        <v>107</v>
+        <v>106.4</v>
       </c>
       <c r="C6" s="2">
-        <v>106.1</v>
+        <v>105.5</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" ref="D6:D10" si="1">($C$2-A6)/$B$2</f>
-        <v>0.99067278953287885</v>
+        <v>0.9906690482761441</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>0.63785532</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+        <v>0.63458040000000004</v>
+      </c>
+      <c r="G6" s="2">
+        <v>16.13</v>
+      </c>
+      <c r="H6" s="2">
+        <v>56.9</v>
+      </c>
       <c r="I6" s="2">
         <f t="shared" ref="I6:I8" si="2">(G6*$G$2)+$H$2</f>
-        <v>6.1899999999999997E-2</v>
+        <v>1.6297359999999999</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -34231,24 +34276,28 @@
         <v>200</v>
       </c>
       <c r="B7" s="2">
-        <v>211.2</v>
+        <v>210.1</v>
       </c>
       <c r="C7" s="2">
-        <v>209.8</v>
+        <v>209</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="1"/>
-        <v>0.80814533413223821</v>
+        <v>0.80814226429586289</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>1.2027454019999999</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+        <v>1.1967380999999997</v>
+      </c>
+      <c r="G7" s="2">
+        <v>27.22</v>
+      </c>
+      <c r="H7" s="2">
+        <v>113.6</v>
+      </c>
       <c r="I7" s="2">
         <f t="shared" si="2"/>
-        <v>6.1899999999999997E-2</v>
+        <v>2.707684</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -34256,24 +34305,28 @@
         <v>300</v>
       </c>
       <c r="B8" s="2">
-        <v>312.8</v>
+        <v>311.60000000000002</v>
       </c>
       <c r="C8" s="2">
-        <v>311.2</v>
+        <v>310.3</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="1"/>
-        <v>0.62561787873159769</v>
+        <v>0.62561548031558156</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>1.7535403380000001</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+        <v>1.7469695999999999</v>
+      </c>
+      <c r="G8" s="2">
+        <v>29.14</v>
+      </c>
+      <c r="H8" s="2">
+        <v>127.8</v>
+      </c>
       <c r="I8" s="2">
         <f t="shared" si="2"/>
-        <v>6.1899999999999997E-2</v>
+        <v>2.8943080000000001</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -34281,18 +34334,18 @@
         <v>400</v>
       </c>
       <c r="B9" s="2">
-        <v>414.2</v>
+        <v>413.2</v>
       </c>
       <c r="C9" s="2">
-        <v>413.1</v>
+        <v>412.4</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
-        <v>0.44309042333095711</v>
+        <v>0.44308869633530029</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>2.3032510319999999</v>
+        <v>2.2977431999999998</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -34300,18 +34353,18 @@
         <v>450</v>
       </c>
       <c r="B10" s="2">
-        <v>459.6</v>
+        <v>458.7</v>
       </c>
       <c r="C10" s="2">
-        <v>458.9</v>
+        <v>458.4</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>0.35182669563063684</v>
+        <v>0.35182530434515963</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>2.5493739660000001</v>
+        <v>2.5443986999999999</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -34342,31 +34395,32 @@
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="L18" s="14">
         <f>O18*-1</f>
-        <v>555.87742317208119</v>
+        <v>557.47350572307676</v>
       </c>
       <c r="M18">
         <f>P18</f>
-        <v>657.53039648837876</v>
+        <v>657.65764478974359</v>
       </c>
       <c r="O18" s="14" cm="1">
         <f t="array" ref="O18:P18">LINEST(C5:C10,D5:D10,1,0)</f>
-        <v>-555.87742317208119</v>
+        <v>-557.47350572307676</v>
       </c>
       <c r="P18">
-        <v>657.53039648837876</v>
+        <v>657.65764478974359</v>
       </c>
       <c r="U18" s="14" cm="1">
         <f t="array" ref="U18:V18">LINEST(E5:E10,C5:C10)</f>
-        <v>5.4239906588183602E-3</v>
+        <v>5.418466995075171E-3</v>
       </c>
       <c r="V18">
-        <v>6.2767245073086286E-2</v>
-      </c>
-      <c r="AD18">
-        <v>3.233449E-2</v>
+        <v>6.2957057487354806E-2</v>
+      </c>
+      <c r="AD18" cm="1">
+        <f t="array" ref="AD18:AE18">LINEST(I5:I8,H5:H8,1,0)</f>
+        <v>2.0991286875549093E-2</v>
       </c>
       <c r="AE18">
-        <v>2.5242730000000001E-2</v>
+        <v>0.29073664380028919</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -34394,22 +34448,22 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>547.86278470000002</v>
+        <v>547.86479999999995</v>
       </c>
       <c r="C20">
-        <v>642.75275320000003</v>
+        <v>642.7527</v>
       </c>
       <c r="D20" s="12">
-        <v>5.4212100000000001E-3</v>
+        <v>5.4209999999999996E-3</v>
       </c>
       <c r="E20" s="13">
-        <v>5.778585E-2</v>
+        <v>5.7785999999999997E-2</v>
       </c>
       <c r="G20" s="2">
-        <v>6.1754690000000001E-2</v>
+        <v>9.7199999999999995E-2</v>
       </c>
       <c r="H20" s="2">
-        <v>6.370294E-2</v>
+        <v>6.1899999999999997E-2</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
@@ -34440,27 +34494,31 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B23" s="2">
-        <v>36.299999999999997</v>
+        <v>43.1</v>
       </c>
       <c r="C23" s="2">
-        <v>29</v>
+        <v>35.6</v>
       </c>
       <c r="D23" s="2">
         <f>($C$20-A23)/$B$20</f>
-        <v>1.1184420083133273</v>
+        <v>1.0819324402662849</v>
       </c>
       <c r="E23" s="2">
         <f>(B23*$D$20)+$E$20</f>
-        <v>0.25457577300000001</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+        <v>0.2914311</v>
+      </c>
+      <c r="G23" s="2">
+        <v>5</v>
+      </c>
+      <c r="H23" s="2">
+        <v>15.7</v>
+      </c>
       <c r="I23" s="2">
         <f>(G23*$G$20)+$H$20</f>
-        <v>6.370294E-2</v>
+        <v>0.54789999999999994</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
@@ -34468,24 +34526,28 @@
         <v>100</v>
       </c>
       <c r="B24" s="2">
-        <v>95.4</v>
+        <v>97.8</v>
       </c>
       <c r="C24" s="2">
-        <v>91.2</v>
+        <v>90.7</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" ref="D24:D28" si="3">($C$20-A24)/$B$20</f>
-        <v>0.99067278953287885</v>
+        <v>0.9906690482761441</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" ref="E24:E28" si="4">(B24*$D$20)+$E$20</f>
-        <v>0.57496928400000002</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+        <v>0.58795979999999992</v>
+      </c>
+      <c r="G24" s="2">
+        <v>17.55</v>
+      </c>
+      <c r="H24" s="2">
+        <v>53.9</v>
+      </c>
       <c r="I24" s="2">
         <f t="shared" ref="I24:I26" si="5">(G24*$G$20)+$H$20</f>
-        <v>6.370294E-2</v>
+        <v>1.76776</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
@@ -34493,24 +34555,28 @@
         <v>200</v>
       </c>
       <c r="B25" s="2">
-        <v>202.1</v>
+        <v>201.2</v>
       </c>
       <c r="C25" s="2">
-        <v>195</v>
+        <v>194.6</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="3"/>
-        <v>0.80814533413223821</v>
+        <v>0.80814226429586289</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="4"/>
-        <v>1.1534123909999998</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+        <v>1.1484911999999998</v>
+      </c>
+      <c r="G25" s="2">
+        <v>28.89</v>
+      </c>
+      <c r="H25" s="2">
+        <v>88.7</v>
+      </c>
       <c r="I25" s="2">
         <f t="shared" si="5"/>
-        <v>6.370294E-2</v>
+        <v>2.8700079999999999</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
@@ -34518,24 +34584,28 @@
         <v>300</v>
       </c>
       <c r="B26" s="2">
-        <v>302.5</v>
+        <v>301.5</v>
       </c>
       <c r="C26" s="2">
-        <v>296.10000000000002</v>
+        <v>295.39999999999998</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="3"/>
-        <v>0.62561787873159769</v>
+        <v>0.62561548031558156</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="4"/>
-        <v>1.6977018749999999</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+        <v>1.6922174999999997</v>
+      </c>
+      <c r="G26" s="2">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="H26" s="2">
+        <v>111.2</v>
+      </c>
       <c r="I26" s="2">
         <f t="shared" si="5"/>
-        <v>6.370294E-2</v>
+        <v>3.2986599999999995</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
@@ -34543,18 +34613,18 @@
         <v>400</v>
       </c>
       <c r="B27" s="2">
-        <v>403.1</v>
+        <v>401.9</v>
       </c>
       <c r="C27" s="2">
-        <v>398</v>
+        <v>397.2</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="3"/>
-        <v>0.44309042333095711</v>
+        <v>0.44308869633530029</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="4"/>
-        <v>2.2430756010000001</v>
+        <v>2.2364858999999999</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
@@ -34562,18 +34632,18 @@
         <v>450</v>
       </c>
       <c r="B28" s="2">
-        <v>450.3</v>
+        <v>449.2</v>
       </c>
       <c r="C28" s="2">
-        <v>446</v>
+        <v>445.4</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="3"/>
-        <v>0.35182669563063684</v>
+        <v>0.35182530434515963</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="4"/>
-        <v>2.4989567130000001</v>
+        <v>2.4928992000000001</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
@@ -34599,31 +34669,32 @@
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="L36" s="14">
         <f>O36*-1</f>
-        <v>549.49713199508096</v>
+        <v>560.40247523076903</v>
       </c>
       <c r="M36">
         <f>P36</f>
-        <v>639.81766382279898</v>
+        <v>644.89069448076918</v>
       </c>
       <c r="O36" s="14" cm="1">
         <f t="array" ref="O36:P36">LINEST(C23:C28,D23:D28,1,0)</f>
-        <v>-549.49713199508096</v>
+        <v>-560.40247523076903</v>
       </c>
       <c r="P36">
-        <v>639.81766382279898</v>
+        <v>644.89069448076918</v>
       </c>
       <c r="U36" s="14" cm="1">
         <f t="array" ref="U36:V36">LINEST(E23:E28,C23:C28)</f>
-        <v>5.400886056462547E-3</v>
+        <v>5.3752488081681782E-3</v>
       </c>
       <c r="V36">
-        <v>9.3797026505009207E-2</v>
-      </c>
-      <c r="AD36">
-        <v>3.229311E-2</v>
+        <v>0.10125570229390735</v>
+      </c>
+      <c r="AD36" cm="1">
+        <f t="array" ref="AD36:AE36">LINEST(I23:I26,H23:H26,1,0)</f>
+        <v>2.9390766131635701E-2</v>
       </c>
       <c r="AE36">
-        <v>2.6093709999999999E-2</v>
+        <v>0.14087913188104451</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
@@ -34651,22 +34722,22 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B38">
-        <v>547.86278470000002</v>
+        <v>547.86479999999995</v>
       </c>
       <c r="C38">
-        <v>642.75275320000003</v>
+        <v>642.7527</v>
       </c>
       <c r="D38" s="12">
-        <v>5.4212100000000001E-3</v>
+        <v>5.4209999999999996E-3</v>
       </c>
       <c r="E38" s="13">
-        <v>5.778585E-2</v>
+        <v>5.7785999999999997E-2</v>
       </c>
       <c r="G38" s="2">
-        <v>6.1754690000000001E-2</v>
+        <v>9.7199999999999995E-2</v>
       </c>
       <c r="H38" s="2">
-        <v>6.370294E-2</v>
+        <v>6.1899999999999997E-2</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
@@ -34697,27 +34768,31 @@
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B41" s="2">
-        <v>31.7</v>
+        <v>44.9</v>
       </c>
       <c r="C41" s="2">
-        <v>32</v>
+        <v>44.9</v>
       </c>
       <c r="D41" s="2">
         <f t="shared" ref="D41:D46" si="6">($C$38-A41)/$B$38</f>
-        <v>1.1184420083133273</v>
+        <v>1.0819324402662849</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" ref="E41:E46" si="7">(B41*$D$38)+$E$38</f>
-        <v>0.22963820700000001</v>
-      </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+        <v>0.30118889999999998</v>
+      </c>
+      <c r="G41" s="2">
+        <v>5.03</v>
+      </c>
+      <c r="H41" s="2">
+        <v>17.3</v>
+      </c>
       <c r="I41" s="2">
         <f>(G41*$G$38)+$H$38</f>
-        <v>6.370294E-2</v>
+        <v>0.55081599999999997</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
@@ -34725,24 +34800,28 @@
         <v>100</v>
       </c>
       <c r="B42" s="2">
-        <v>103.4</v>
+        <v>102.3</v>
       </c>
       <c r="C42" s="2">
-        <v>102.3</v>
+        <v>101.2</v>
       </c>
       <c r="D42" s="2">
         <f t="shared" si="6"/>
-        <v>0.99067278953287885</v>
+        <v>0.9906690482761441</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" si="7"/>
-        <v>0.6183389640000001</v>
-      </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
+        <v>0.61235429999999991</v>
+      </c>
+      <c r="G42" s="2">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="H42" s="2">
+        <v>54.3</v>
+      </c>
       <c r="I42" s="2">
         <f>(G42*$G$38)+$H$38</f>
-        <v>6.370294E-2</v>
+        <v>1.7288799999999998</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
@@ -34750,24 +34829,28 @@
         <v>200</v>
       </c>
       <c r="B43" s="2">
-        <v>206.8</v>
+        <v>204.9</v>
       </c>
       <c r="C43" s="2">
-        <v>203.6</v>
+        <v>201.9</v>
       </c>
       <c r="D43" s="2">
         <f t="shared" si="6"/>
-        <v>0.80814533413223821</v>
+        <v>0.80814226429586289</v>
       </c>
       <c r="E43" s="2">
         <f t="shared" si="7"/>
-        <v>1.1788920780000001</v>
-      </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+        <v>1.1685488999999998</v>
+      </c>
+      <c r="G43" s="2">
+        <v>23.05</v>
+      </c>
+      <c r="H43" s="2">
+        <v>72.400000000000006</v>
+      </c>
       <c r="I43" s="2">
         <f>(G43*$G$38)+$H$38</f>
-        <v>6.370294E-2</v>
+        <v>2.3023600000000002</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
@@ -34775,24 +34858,28 @@
         <v>300</v>
       </c>
       <c r="B44" s="2">
-        <v>304.89999999999998</v>
+        <v>303.39999999999998</v>
       </c>
       <c r="C44" s="2">
-        <v>300.3</v>
+        <v>299.60000000000002</v>
       </c>
       <c r="D44" s="2">
         <f t="shared" si="6"/>
-        <v>0.62561787873159769</v>
+        <v>0.62561548031558156</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" si="7"/>
-        <v>1.7107127789999999</v>
-      </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
+        <v>1.7025173999999996</v>
+      </c>
+      <c r="G44" s="2">
+        <v>32.43</v>
+      </c>
+      <c r="H44" s="2">
+        <v>101.2</v>
+      </c>
       <c r="I44" s="2">
         <f>(G44*$G$38)+$H$38</f>
-        <v>6.370294E-2</v>
+        <v>3.2140960000000001</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
@@ -34800,18 +34887,18 @@
         <v>400</v>
       </c>
       <c r="B45" s="2">
-        <v>405.3</v>
+        <v>403.9</v>
       </c>
       <c r="C45" s="2">
-        <v>399.2</v>
+        <v>398.5</v>
       </c>
       <c r="D45" s="2">
         <f t="shared" si="6"/>
-        <v>0.44309042333095711</v>
+        <v>0.44308869633530029</v>
       </c>
       <c r="E45" s="2">
         <f t="shared" si="7"/>
-        <v>2.2550022630000002</v>
+        <v>2.2473278999999997</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
@@ -34819,18 +34906,18 @@
         <v>450</v>
       </c>
       <c r="B46" s="2">
-        <v>451.1</v>
+        <v>450.1</v>
       </c>
       <c r="C46" s="2">
-        <v>445</v>
+        <v>444.8</v>
       </c>
       <c r="D46" s="2">
         <f t="shared" si="6"/>
-        <v>0.35182669563063684</v>
+        <v>0.35182530434515963</v>
       </c>
       <c r="E46" s="2">
         <f t="shared" si="7"/>
-        <v>2.5032936810000002</v>
+        <v>2.4977781000000001</v>
       </c>
     </row>
     <row r="53" spans="12:31" x14ac:dyDescent="0.25">
@@ -34856,31 +34943,32 @@
     <row r="54" spans="12:31" x14ac:dyDescent="0.25">
       <c r="L54" s="14">
         <f>O54*-1</f>
-        <v>539.69632882974884</v>
+        <v>545.58905390769223</v>
       </c>
       <c r="M54">
         <f>P54</f>
-        <v>637.24868444989102</v>
+        <v>639.60459904102572</v>
       </c>
       <c r="O54" s="14" cm="1">
         <f t="array" ref="O54:P54">LINEST(C41:C46,D41:D46,1,0)</f>
-        <v>-539.69632882974884</v>
+        <v>-545.58905390769223</v>
       </c>
       <c r="P54">
-        <v>637.24868444989102</v>
+        <v>639.60459904102572</v>
       </c>
       <c r="U54" s="14" cm="1">
         <f t="array" ref="U54:V54">LINEST(E41:E46,C41:C46)</f>
-        <v>5.5078832053894614E-3</v>
+        <v>5.4942675445633403E-3</v>
       </c>
       <c r="V54">
-        <v>5.5165318055110379E-2</v>
-      </c>
-      <c r="AD54">
-        <v>3.2163619999999997E-2</v>
+        <v>5.6385336301752575E-2</v>
+      </c>
+      <c r="AD54" cm="1">
+        <f t="array" ref="AD54:AE54">LINEST(I41:I44,H41:H44,1,0)</f>
+        <v>3.1744210452351478E-2</v>
       </c>
       <c r="AE54">
-        <v>5.0859109999999999E-2</v>
+        <v>3.117899270854263E-3</v>
       </c>
     </row>
   </sheetData>
@@ -34895,12 +34983,12 @@
   <dimension ref="A1:AE67"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
     <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -34929,22 +35017,22 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>496.57073580000002</v>
+        <v>547.86479999999995</v>
       </c>
       <c r="C2">
-        <v>611.41472150000004</v>
-      </c>
-      <c r="D2">
-        <v>5.4126499999999998E-3</v>
-      </c>
-      <c r="E2">
-        <v>3.7247339999999997E-2</v>
+        <v>642.7527</v>
+      </c>
+      <c r="D2" s="12">
+        <v>5.4209999999999996E-3</v>
+      </c>
+      <c r="E2" s="13">
+        <v>5.7785999999999997E-2</v>
       </c>
       <c r="G2" s="2">
-        <v>6.1754690000000001E-2</v>
+        <v>9.7199999999999995E-2</v>
       </c>
       <c r="H2" s="2">
-        <v>6.370294E-2</v>
+        <v>6.1899999999999997E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -34979,15 +35067,15 @@
       </c>
       <c r="D5" s="2">
         <f t="shared" ref="D5:D10" si="0">($C$2-A5)/$B$2</f>
-        <v>1.1809288772429509</v>
+        <v>1.1275641362613551</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" ref="E5:E10" si="1">(B5*$D$2)+$E$2</f>
-        <v>3.7247339999999997E-2</v>
+        <v>5.7785999999999997E-2</v>
       </c>
       <c r="I5" s="2">
         <f>(G5*$G$2)+$H$2</f>
-        <v>6.370294E-2</v>
+        <v>6.1899999999999997E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -34996,15 +35084,15 @@
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>1.0298929933438095</v>
+        <v>0.9906690482761441</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="1"/>
-        <v>3.7247339999999997E-2</v>
+        <v>5.7785999999999997E-2</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" ref="I6:I8" si="2">(G6*$G$2)+$H$2</f>
-        <v>6.370294E-2</v>
+        <v>6.1899999999999997E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -35013,15 +35101,15 @@
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>0.82851181481162106</v>
+        <v>0.80814226429586289</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="1"/>
-        <v>3.7247339999999997E-2</v>
+        <v>5.7785999999999997E-2</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="2"/>
-        <v>6.370294E-2</v>
+        <v>6.1899999999999997E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -35030,15 +35118,15 @@
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>0.62713063627943266</v>
+        <v>0.62561548031558156</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="1"/>
-        <v>3.7247339999999997E-2</v>
+        <v>5.7785999999999997E-2</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="2"/>
-        <v>6.370294E-2</v>
+        <v>6.1899999999999997E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -35047,11 +35135,11 @@
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>0.42574945774724415</v>
+        <v>0.44308869633530029</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>3.7247339999999997E-2</v>
+        <v>5.7785999999999997E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -35060,11 +35148,11 @@
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>0.3250588684811499</v>
+        <v>0.35182530434515963</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="1"/>
-        <v>3.7247339999999997E-2</v>
+        <v>5.7785999999999997E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -35340,22 +35428,22 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B38">
-        <v>496.57073580000002</v>
+        <v>547.86479999999995</v>
       </c>
       <c r="C38">
-        <v>611.41472150000004</v>
-      </c>
-      <c r="D38">
-        <v>5.4126499999999998E-3</v>
-      </c>
-      <c r="E38">
-        <v>3.7247339999999997E-2</v>
+        <v>642.7527</v>
+      </c>
+      <c r="D38" s="12">
+        <v>5.4209999999999996E-3</v>
+      </c>
+      <c r="E38" s="13">
+        <v>5.7785999999999997E-2</v>
       </c>
       <c r="G38" s="2">
-        <v>6.1754690000000001E-2</v>
+        <v>9.7199999999999995E-2</v>
       </c>
       <c r="H38" s="2">
-        <v>6.370294E-2</v>
+        <v>6.1899999999999997E-2</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
@@ -35390,15 +35478,15 @@
       </c>
       <c r="D41" s="2">
         <f t="shared" ref="D41:D46" si="6">($C$38-A41)/$B$38</f>
-        <v>1.1809288772429509</v>
+        <v>1.1275641362613551</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" ref="E41:E46" si="7">(B41*$D$38)+$E$38</f>
-        <v>3.7247339999999997E-2</v>
+        <v>5.7785999999999997E-2</v>
       </c>
       <c r="I41" s="2">
         <f>(G41*$G$38)+$H$38</f>
-        <v>6.370294E-2</v>
+        <v>6.1899999999999997E-2</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
@@ -35407,15 +35495,15 @@
       </c>
       <c r="D42" s="2">
         <f t="shared" si="6"/>
-        <v>1.0298929933438095</v>
+        <v>0.9906690482761441</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" si="7"/>
-        <v>3.7247339999999997E-2</v>
+        <v>5.7785999999999997E-2</v>
       </c>
       <c r="I42" s="2">
         <f>(G42*$G$38)+$H$38</f>
-        <v>6.370294E-2</v>
+        <v>6.1899999999999997E-2</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
@@ -35424,15 +35512,15 @@
       </c>
       <c r="D43" s="2">
         <f t="shared" si="6"/>
-        <v>0.82851181481162106</v>
+        <v>0.80814226429586289</v>
       </c>
       <c r="E43" s="2">
         <f t="shared" si="7"/>
-        <v>3.7247339999999997E-2</v>
+        <v>5.7785999999999997E-2</v>
       </c>
       <c r="I43" s="2">
         <f>(G43*$G$38)+$H$38</f>
-        <v>6.370294E-2</v>
+        <v>6.1899999999999997E-2</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
@@ -35441,15 +35529,15 @@
       </c>
       <c r="D44" s="2">
         <f t="shared" si="6"/>
-        <v>0.62713063627943266</v>
+        <v>0.62561548031558156</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" si="7"/>
-        <v>3.7247339999999997E-2</v>
+        <v>5.7785999999999997E-2</v>
       </c>
       <c r="I44" s="2">
         <f>(G44*$G$38)+$H$38</f>
-        <v>6.370294E-2</v>
+        <v>6.1899999999999997E-2</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
@@ -35458,11 +35546,11 @@
       </c>
       <c r="D45" s="2">
         <f t="shared" si="6"/>
-        <v>0.42574945774724415</v>
+        <v>0.44308869633530029</v>
       </c>
       <c r="E45" s="2">
         <f t="shared" si="7"/>
-        <v>3.7247339999999997E-2</v>
+        <v>5.7785999999999997E-2</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
@@ -35471,11 +35559,11 @@
       </c>
       <c r="D46" s="2">
         <f t="shared" si="6"/>
-        <v>0.3250588684811499</v>
+        <v>0.35182530434515963</v>
       </c>
       <c r="E46" s="2">
         <f t="shared" si="7"/>
-        <v>3.7247339999999997E-2</v>
+        <v>5.7785999999999997E-2</v>
       </c>
     </row>
     <row r="53" spans="12:31" x14ac:dyDescent="0.25">
@@ -35543,7 +35631,7 @@
   <dimension ref="A1:AE53"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="AL26" sqref="AL26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36152,7 +36240,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36194,27 +36282,27 @@
       </c>
       <c r="B2" s="15">
         <f>'HV1'!L18</f>
-        <v>555.87742317208119</v>
+        <v>557.47350572307676</v>
       </c>
       <c r="C2" s="15">
         <f>'HV1'!M18</f>
-        <v>657.53039648837876</v>
+        <v>657.65764478974359</v>
       </c>
       <c r="D2" s="15">
         <f>'HV1'!U18</f>
-        <v>5.4239906588183602E-3</v>
+        <v>5.418466995075171E-3</v>
       </c>
       <c r="E2" s="15">
         <f>'HV1'!V18</f>
-        <v>6.2767245073086286E-2</v>
+        <v>6.2957057487354806E-2</v>
       </c>
       <c r="F2" s="15">
         <f>'HV1'!AD18</f>
-        <v>3.233449E-2</v>
+        <v>2.0991286875549093E-2</v>
       </c>
       <c r="G2" s="15">
         <f>'HV1'!AE18</f>
-        <v>2.5242730000000001E-2</v>
+        <v>0.29073664380028919</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -36223,27 +36311,27 @@
       </c>
       <c r="B3" s="16">
         <f>'HV1'!L36</f>
-        <v>549.49713199508096</v>
+        <v>560.40247523076903</v>
       </c>
       <c r="C3" s="16">
         <f>'HV1'!M36</f>
-        <v>639.81766382279898</v>
+        <v>644.89069448076918</v>
       </c>
       <c r="D3" s="16">
         <f>'HV1'!U36</f>
-        <v>5.400886056462547E-3</v>
+        <v>5.3752488081681782E-3</v>
       </c>
       <c r="E3" s="16">
         <f>'HV1'!V36</f>
-        <v>9.3797026505009207E-2</v>
+        <v>0.10125570229390735</v>
       </c>
       <c r="F3" s="16">
         <f>'HV1'!AD36</f>
-        <v>3.229311E-2</v>
+        <v>2.9390766131635701E-2</v>
       </c>
       <c r="G3" s="16">
         <f>'HV1'!AE36</f>
-        <v>2.6093709999999999E-2</v>
+        <v>0.14087913188104451</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -36252,27 +36340,27 @@
       </c>
       <c r="B4" s="16">
         <f>'HV1'!L54</f>
-        <v>539.69632882974884</v>
+        <v>545.58905390769223</v>
       </c>
       <c r="C4" s="16">
         <f>'HV1'!M54</f>
-        <v>637.24868444989102</v>
+        <v>639.60459904102572</v>
       </c>
       <c r="D4" s="16">
         <f>'HV1'!U54</f>
-        <v>5.5078832053894614E-3</v>
+        <v>5.4942675445633403E-3</v>
       </c>
       <c r="E4" s="16">
         <f>'HV1'!V54</f>
-        <v>5.5165318055110379E-2</v>
+        <v>5.6385336301752575E-2</v>
       </c>
       <c r="F4" s="16">
         <f>'HV1'!AD54</f>
-        <v>3.2163619999999997E-2</v>
+        <v>3.1744210452351478E-2</v>
       </c>
       <c r="G4" s="16">
         <f>'HV1'!AE54</f>
-        <v>5.0859109999999999E-2</v>
+        <v>3.117899270854263E-3</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -36479,27 +36567,27 @@
       </c>
       <c r="B13" s="2">
         <f t="shared" ref="B13:G13" si="0">AVERAGE(B2:B10)</f>
-        <v>346.29006557965681</v>
+        <v>348.33386012017087</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>416.80689931789652</v>
+        <v>417.64647637905983</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>3.6186011022967071E-3</v>
+        <v>3.6136259275340765E-3</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>4.4639614403689548E-2</v>
+        <v>4.5625004009223862E-2</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>6.4802256666666669E-2</v>
+        <v>6.3172817051059579E-2</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="0"/>
-        <v>4.1248279999999998E-2</v>
+        <v>7.8196960550243111E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -36516,7 +36604,7 @@
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>5.400886056462547E-3</v>
+        <v>5.3752488081681782E-3</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="1"/>
@@ -36524,11 +36612,11 @@
       </c>
       <c r="F14" s="2">
         <f t="shared" si="1"/>
-        <v>3.229311E-2</v>
+        <v>2.9390766131635701E-2</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="1"/>
-        <v>2.5242730000000001E-2</v>
+        <v>9.5055399999999998E-3</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -36561,27 +36649,27 @@
       </c>
       <c r="B21" s="2">
         <f>AVERAGE(B2:B4)</f>
-        <v>548.35696133230374</v>
+        <v>554.48834495384597</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" ref="C21:G21" si="2">AVERAGE(C2:C4)</f>
-        <v>644.86558158702292</v>
+        <v>647.38431277051279</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="2"/>
-        <v>5.4442533068901231E-3</v>
+        <v>5.4293277826022298E-3</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="2"/>
-        <v>7.0576529877735286E-2</v>
+        <v>7.3532698694338247E-2</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="2"/>
-        <v>3.2263740000000006E-2</v>
+        <v>2.7375421153178758E-2</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="2"/>
-        <v>3.4065183333333332E-2</v>
+        <v>0.14491122498406264</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -36590,27 +36678,27 @@
       </c>
       <c r="B22" s="2">
         <f>MEDIAN(B2:B4)</f>
-        <v>549.49713199508096</v>
+        <v>557.47350572307676</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" ref="C22:G22" si="3">MEDIAN(C2:C4)</f>
-        <v>639.81766382279898</v>
+        <v>644.89069448076918</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="3"/>
-        <v>5.4239906588183602E-3</v>
+        <v>5.418466995075171E-3</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="3"/>
-        <v>6.2767245073086286E-2</v>
+        <v>6.2957057487354806E-2</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="3"/>
-        <v>3.229311E-2</v>
+        <v>2.9390766131635701E-2</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="3"/>
-        <v>2.6093709999999999E-2</v>
+        <v>0.14087913188104451</v>
       </c>
     </row>
   </sheetData>

--- a/HV_Power_Supply_PcApp/HV_Power_Supply_PcApp/bin/Debug/Kalibrace_2024.xlsx
+++ b/HV_Power_Supply_PcApp/HV_Power_Supply_PcApp/bin/Debug/Kalibrace_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CODE_temp\Atlas_HV_Power_Supply_PcApp\HV_Power_Supply_PcApp\HV_Power_Supply_PcApp\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E27B5E-67A8-43B9-BCEE-3C166CDCB687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C54F13-B85E-42F2-8D1D-1495EB26D818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{42646E07-1115-40A8-A93A-C57D4D85C566}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{42646E07-1115-40A8-A93A-C57D4D85C566}"/>
   </bookViews>
   <sheets>
     <sheet name="HV1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -906,7 +906,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.1275641362613551</c:v>
+                  <c:v>1.0819324402662849</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.9906690482761441</c:v>
@@ -932,6 +932,24 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>191.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>289.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>398.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>447.1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1282,22 +1300,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.1809288772429509</c:v>
+                  <c:v>1.0819324402662849</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0298929933438095</c:v>
+                  <c:v>0.9906690482761441</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82851181481162106</c:v>
+                  <c:v>0.80814226429586289</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.62713063627943266</c:v>
+                  <c:v>0.62561548031558156</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.42574945774724415</c:v>
+                  <c:v>0.44308869633530029</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3250588684811499</c:v>
+                  <c:v>0.35182530434515963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1308,6 +1326,24 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>189.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>293.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>447.3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1658,10 +1694,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.1275641362613551</c:v>
+                  <c:v>1.0819324402662849</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9906690482761441</c:v>
+                  <c:v>0.91765833468403168</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.80814226429586289</c:v>
@@ -1684,6 +1720,24 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>264.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>415.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2047,6 +2101,24 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>191.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>289.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>398.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>447.1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2057,22 +2129,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.7785999999999997E-2</c:v>
+                  <c:v>0.26107349999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7785999999999997E-2</c:v>
+                  <c:v>0.56302319999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.7785999999999997E-2</c:v>
+                  <c:v>1.1170493999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.7785999999999997E-2</c:v>
+                  <c:v>1.6472231999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.7785999999999997E-2</c:v>
+                  <c:v>2.2348596000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.7785999999999997E-2</c:v>
+                  <c:v>2.4977781000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2437,6 +2509,24 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>189.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>293.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>447.3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2447,22 +2537,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.7247339999999997E-2</c:v>
+                  <c:v>0.23180010000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7247339999999997E-2</c:v>
+                  <c:v>0.52182359999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7247339999999997E-2</c:v>
+                  <c:v>1.0866917999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.7247339999999997E-2</c:v>
+                  <c:v>1.6455968999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7247339999999997E-2</c:v>
+                  <c:v>2.2196807999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7247339999999997E-2</c:v>
+                  <c:v>2.4717573000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2821,6 +2911,24 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>264.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>415.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2831,22 +2939,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.7785999999999997E-2</c:v>
+                  <c:v>0.23451059999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7785999999999997E-2</c:v>
+                  <c:v>0.58958609999999989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.7785999999999997E-2</c:v>
+                  <c:v>0.93653009999999992</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.7785999999999997E-2</c:v>
+                  <c:v>1.4813406</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.7785999999999997E-2</c:v>
+                  <c:v>2.0586771000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.7785999999999997E-2</c:v>
+                  <c:v>2.3194271999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3205,6 +3313,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3215,16 +3335,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.1899999999999997E-2</c:v>
+                  <c:v>2.3019999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.1899999999999997E-2</c:v>
+                  <c:v>0.58289199999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.1899999999999997E-2</c:v>
+                  <c:v>1.6802799999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1899999999999997E-2</c:v>
+                  <c:v>2.5162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3583,6 +3703,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3593,16 +3725,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.370294E-2</c:v>
+                  <c:v>1.0383999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.370294E-2</c:v>
+                  <c:v>0.49929999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.370294E-2</c:v>
+                  <c:v>1.0941639999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.370294E-2</c:v>
+                  <c:v>2.2994439999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3961,6 +4093,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.900000000000006</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3971,16 +4115,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.1899999999999997E-2</c:v>
+                  <c:v>2.9823999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.1899999999999997E-2</c:v>
+                  <c:v>0.54887199999999992</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.1899999999999997E-2</c:v>
+                  <c:v>1.2166360000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1899999999999997E-2</c:v>
+                  <c:v>2.4977319999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12602,16 +12746,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>18.3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56.9</c:v>
+                  <c:v>13.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>113.6</c:v>
+                  <c:v>31.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>127.8</c:v>
+                  <c:v>69.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12623,16 +12767,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.57705999999999991</c:v>
+                  <c:v>3.5430340000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6297359999999999</c:v>
+                  <c:v>0.44133075999999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.707684</c:v>
+                  <c:v>0.96080757999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8943080000000001</c:v>
+                  <c:v>1.9535194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12992,16 +13136,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>15.7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.9</c:v>
+                  <c:v>22.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88.7</c:v>
+                  <c:v>31.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>111.2</c:v>
+                  <c:v>83.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13013,16 +13157,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.54789999999999994</c:v>
+                  <c:v>2.3019999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.76776</c:v>
+                  <c:v>0.75590799999999991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8700079999999999</c:v>
+                  <c:v>1.0387600000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2986599999999995</c:v>
+                  <c:v>2.7105999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13382,16 +13526,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>17.3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54.3</c:v>
+                  <c:v>15.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72.400000000000006</c:v>
+                  <c:v>29.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>101.2</c:v>
+                  <c:v>83.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13403,16 +13547,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.55081599999999997</c:v>
+                  <c:v>2.3019999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7288799999999998</c:v>
+                  <c:v>0.50513199999999991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3023600000000002</c:v>
+                  <c:v>0.93864399999999981</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2140960000000001</c:v>
+                  <c:v>2.659084</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -34124,8 +34268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E729D20-13F7-4C55-8C83-89C49955F856}">
   <dimension ref="A1:AE54"/>
   <sheetViews>
-    <sheetView topLeftCell="F19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD59" sqref="AD59"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AE18" sqref="AE18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34181,10 +34325,10 @@
         <v>5.7785999999999997E-2</v>
       </c>
       <c r="G2" s="2">
-        <v>9.7199999999999995E-2</v>
+        <v>2.7042E-2</v>
       </c>
       <c r="H2" s="2">
-        <v>6.1899999999999997E-2</v>
+        <v>6.8692000000000003E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -34232,14 +34376,14 @@
         <v>0.34564109999999998</v>
       </c>
       <c r="G5" s="2">
-        <v>5.3</v>
+        <v>-1.23</v>
       </c>
       <c r="H5" s="2">
-        <v>18.3</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
         <f>(G5*$G$2)+$H$2</f>
-        <v>0.57705999999999991</v>
+        <v>3.5430340000000005E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -34261,14 +34405,14 @@
         <v>0.63458040000000004</v>
       </c>
       <c r="G6" s="2">
-        <v>16.13</v>
+        <v>13.78</v>
       </c>
       <c r="H6" s="2">
-        <v>56.9</v>
+        <v>13.6</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" ref="I6:I8" si="2">(G6*$G$2)+$H$2</f>
-        <v>1.6297359999999999</v>
+        <v>0.44133075999999993</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -34290,14 +34434,14 @@
         <v>1.1967380999999997</v>
       </c>
       <c r="G7" s="2">
-        <v>27.22</v>
+        <v>32.99</v>
       </c>
       <c r="H7" s="2">
-        <v>113.6</v>
+        <v>31.6</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="2"/>
-        <v>2.707684</v>
+        <v>0.96080757999999999</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -34319,14 +34463,14 @@
         <v>1.7469695999999999</v>
       </c>
       <c r="G8" s="2">
-        <v>29.14</v>
+        <v>69.7</v>
       </c>
       <c r="H8" s="2">
-        <v>127.8</v>
+        <v>69.7</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="2"/>
-        <v>2.8943080000000001</v>
+        <v>1.9535194</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -34417,10 +34561,10 @@
       </c>
       <c r="AD18" cm="1">
         <f t="array" ref="AD18:AE18">LINEST(I5:I8,H5:H8,1,0)</f>
-        <v>2.0991286875549093E-2</v>
+        <v>2.740312627140672E-2</v>
       </c>
       <c r="AE18">
-        <v>0.29073664380028919</v>
+        <v>6.0617217853841998E-2</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -34511,14 +34655,14 @@
         <v>0.2914311</v>
       </c>
       <c r="G23" s="2">
-        <v>5</v>
+        <v>-0.4</v>
       </c>
       <c r="H23" s="2">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="I23" s="2">
         <f>(G23*$G$20)+$H$20</f>
-        <v>0.54789999999999994</v>
+        <v>2.3019999999999999E-2</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
@@ -34540,14 +34684,14 @@
         <v>0.58795979999999992</v>
       </c>
       <c r="G24" s="2">
-        <v>17.55</v>
+        <v>7.14</v>
       </c>
       <c r="H24" s="2">
-        <v>53.9</v>
+        <v>22.3</v>
       </c>
       <c r="I24" s="2">
         <f t="shared" ref="I24:I26" si="5">(G24*$G$20)+$H$20</f>
-        <v>1.76776</v>
+        <v>0.75590799999999991</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
@@ -34569,14 +34713,14 @@
         <v>1.1484911999999998</v>
       </c>
       <c r="G25" s="2">
-        <v>28.89</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="H25" s="2">
-        <v>88.7</v>
+        <v>31.2</v>
       </c>
       <c r="I25" s="2">
         <f t="shared" si="5"/>
-        <v>2.8700079999999999</v>
+        <v>1.0387600000000001</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
@@ -34598,14 +34742,14 @@
         <v>1.6922174999999997</v>
       </c>
       <c r="G26" s="2">
-        <v>33.299999999999997</v>
+        <v>27.25</v>
       </c>
       <c r="H26" s="2">
-        <v>111.2</v>
+        <v>83.9</v>
       </c>
       <c r="I26" s="2">
         <f t="shared" si="5"/>
-        <v>3.2986599999999995</v>
+        <v>2.7105999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
@@ -34691,10 +34835,10 @@
       </c>
       <c r="AD36" cm="1">
         <f t="array" ref="AD36:AE36">LINEST(I23:I26,H23:H26,1,0)</f>
-        <v>2.9390766131635701E-2</v>
+        <v>3.1960611463623764E-2</v>
       </c>
       <c r="AE36">
-        <v>0.14087913188104451</v>
+        <v>3.4224996224523574E-2</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
@@ -34785,14 +34929,14 @@
         <v>0.30118889999999998</v>
       </c>
       <c r="G41" s="2">
-        <v>5.03</v>
+        <v>-0.4</v>
       </c>
       <c r="H41" s="2">
-        <v>17.3</v>
+        <v>0</v>
       </c>
       <c r="I41" s="2">
         <f>(G41*$G$38)+$H$38</f>
-        <v>0.55081599999999997</v>
+        <v>2.3019999999999999E-2</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
@@ -34814,14 +34958,14 @@
         <v>0.61235429999999991</v>
       </c>
       <c r="G42" s="2">
-        <v>17.149999999999999</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="H42" s="2">
-        <v>54.3</v>
+        <v>15.9</v>
       </c>
       <c r="I42" s="2">
         <f>(G42*$G$38)+$H$38</f>
-        <v>1.7288799999999998</v>
+        <v>0.50513199999999991</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
@@ -34843,14 +34987,14 @@
         <v>1.1685488999999998</v>
       </c>
       <c r="G43" s="2">
-        <v>23.05</v>
+        <v>9.02</v>
       </c>
       <c r="H43" s="2">
-        <v>72.400000000000006</v>
+        <v>29.5</v>
       </c>
       <c r="I43" s="2">
         <f>(G43*$G$38)+$H$38</f>
-        <v>2.3023600000000002</v>
+        <v>0.93864399999999981</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
@@ -34872,14 +35016,14 @@
         <v>1.7025173999999996</v>
       </c>
       <c r="G44" s="2">
-        <v>32.43</v>
+        <v>26.72</v>
       </c>
       <c r="H44" s="2">
-        <v>101.2</v>
+        <v>83.4</v>
       </c>
       <c r="I44" s="2">
         <f>(G44*$G$38)+$H$38</f>
-        <v>3.2140960000000001</v>
+        <v>2.659084</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
@@ -34965,10 +35109,10 @@
       </c>
       <c r="AD54" cm="1">
         <f t="array" ref="AD54:AE54">LINEST(I41:I44,H41:H44,1,0)</f>
-        <v>3.1744210452351478E-2</v>
+        <v>3.1703796340104694E-2</v>
       </c>
       <c r="AE54">
-        <v>3.117899270854263E-3</v>
+        <v>1.0607757848628552E-2</v>
       </c>
     </row>
   </sheetData>
@@ -34982,14 +35126,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15CA3699-63A7-4BCA-B0B6-2E78CB456C90}">
   <dimension ref="A1:AE67"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" customWidth="1"/>
     <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -35063,96 +35210,156 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>37.5</v>
+      </c>
+      <c r="C5">
+        <v>34.5</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" ref="D5:D10" si="0">($C$2-A5)/$B$2</f>
-        <v>1.1275641362613551</v>
+        <v>1.0819324402662849</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" ref="E5:E10" si="1">(B5*$D$2)+$E$2</f>
-        <v>5.7785999999999997E-2</v>
+        <v>0.26107349999999996</v>
+      </c>
+      <c r="G5">
+        <v>-0.4</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
       </c>
       <c r="I5" s="2">
         <f>(G5*$G$2)+$H$2</f>
-        <v>6.1899999999999997E-2</v>
+        <v>2.3019999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>100</v>
       </c>
+      <c r="B6">
+        <v>93.2</v>
+      </c>
+      <c r="C6">
+        <v>89.7</v>
+      </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
         <v>0.9906690482761441</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="1"/>
-        <v>5.7785999999999997E-2</v>
+        <v>0.56302319999999995</v>
+      </c>
+      <c r="G6">
+        <v>5.36</v>
+      </c>
+      <c r="H6">
+        <v>16.600000000000001</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" ref="I6:I8" si="2">(G6*$G$2)+$H$2</f>
-        <v>6.1899999999999997E-2</v>
+        <v>0.58289199999999997</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>200</v>
       </c>
+      <c r="B7">
+        <v>195.4</v>
+      </c>
+      <c r="C7">
+        <v>191.8</v>
+      </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
         <v>0.80814226429586289</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="1"/>
-        <v>5.7785999999999997E-2</v>
+        <v>1.1170493999999997</v>
+      </c>
+      <c r="G7">
+        <v>16.649999999999999</v>
+      </c>
+      <c r="H7">
+        <v>50.8</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="2"/>
-        <v>6.1899999999999997E-2</v>
+        <v>1.6802799999999998</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>300</v>
       </c>
+      <c r="B8">
+        <v>293.2</v>
+      </c>
+      <c r="C8">
+        <v>289.2</v>
+      </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
         <v>0.62561548031558156</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="1"/>
-        <v>5.7785999999999997E-2</v>
+        <v>1.6472231999999998</v>
+      </c>
+      <c r="G8">
+        <v>25.25</v>
+      </c>
+      <c r="H8">
+        <v>76.8</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="2"/>
-        <v>6.1899999999999997E-2</v>
+        <v>2.5162</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>400</v>
       </c>
+      <c r="B9">
+        <v>401.6</v>
+      </c>
+      <c r="C9">
+        <v>398.3</v>
+      </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
         <v>0.44308869633530029</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>5.7785999999999997E-2</v>
+        <v>2.2348596000000001</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>450</v>
       </c>
+      <c r="B10">
+        <v>450.1</v>
+      </c>
+      <c r="C10">
+        <v>447.1</v>
+      </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
         <v>0.35182530434515963</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="1"/>
-        <v>5.7785999999999997E-2</v>
+        <v>2.4977781000000001</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -35181,23 +35388,34 @@
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="L18">
-        <v>483.74161550000002</v>
+      <c r="L18" s="14">
+        <f>O18*-1</f>
+        <v>563.3735881846153</v>
       </c>
       <c r="M18">
-        <v>591.05310112999996</v>
-      </c>
-      <c r="U18">
-        <v>5.4416999999999998E-3</v>
+        <f>P18</f>
+        <v>645.63728925128203</v>
+      </c>
+      <c r="O18" s="14" cm="1">
+        <f t="array" ref="O18:P18">LINEST(C5:C10,D5:D10,1,0)</f>
+        <v>-563.3735881846153</v>
+      </c>
+      <c r="P18">
+        <v>645.63728925128203</v>
+      </c>
+      <c r="U18" s="14" cm="1">
+        <f t="array" ref="U18:V18">LINEST(E5:E10,C5:C10)</f>
+        <v>5.4205418588699032E-3</v>
       </c>
       <c r="V18">
-        <v>5.9830880000000003E-2</v>
-      </c>
-      <c r="AD18">
-        <v>0.16231470000000001</v>
+        <v>7.6328163253886361E-2</v>
+      </c>
+      <c r="AD18" cm="1">
+        <f t="array" ref="AD18:AE18">LINEST(I5:I8,H5:H8,1,0)</f>
+        <v>3.2382223884500419E-2</v>
       </c>
       <c r="AE18">
-        <v>0.17908824000000001</v>
+        <v>3.3218828963759828E-2</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -35225,22 +35443,22 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>496.57073580000002</v>
+        <v>547.86479999999995</v>
       </c>
       <c r="C20">
-        <v>611.41472150000004</v>
-      </c>
-      <c r="D20">
-        <v>5.4126499999999998E-3</v>
-      </c>
-      <c r="E20">
-        <v>3.7247339999999997E-2</v>
+        <v>642.7527</v>
+      </c>
+      <c r="D20" s="12">
+        <v>5.4209999999999996E-3</v>
+      </c>
+      <c r="E20" s="13">
+        <v>5.7785999999999997E-2</v>
       </c>
       <c r="G20" s="2">
-        <v>6.1754690000000001E-2</v>
+        <v>9.7199999999999995E-2</v>
       </c>
       <c r="H20" s="2">
-        <v>6.370294E-2</v>
+        <v>6.1899999999999997E-2</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
@@ -35271,96 +35489,156 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="B23">
+        <v>32.1</v>
+      </c>
+      <c r="C23">
+        <v>32.4</v>
       </c>
       <c r="D23" s="2">
         <f>($C$20-A23)/$B$20</f>
-        <v>1.1809288772429509</v>
+        <v>1.0819324402662849</v>
       </c>
       <c r="E23" s="2">
         <f>(B23*$D$20)+$E$20</f>
-        <v>3.7247339999999997E-2</v>
+        <v>0.23180010000000001</v>
+      </c>
+      <c r="G23">
+        <v>-0.53</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
       </c>
       <c r="I23" s="2">
         <f>(G23*$G$20)+$H$20</f>
-        <v>6.370294E-2</v>
+        <v>1.0383999999999997E-2</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>100</v>
       </c>
+      <c r="B24">
+        <v>85.6</v>
+      </c>
+      <c r="C24">
+        <v>85.7</v>
+      </c>
       <c r="D24" s="2">
         <f t="shared" ref="D24:D28" si="3">($C$20-A24)/$B$20</f>
-        <v>1.0298929933438095</v>
+        <v>0.9906690482761441</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" ref="E24:E28" si="4">(B24*$D$20)+$E$20</f>
-        <v>3.7247339999999997E-2</v>
+        <v>0.52182359999999994</v>
+      </c>
+      <c r="G24">
+        <v>4.5</v>
+      </c>
+      <c r="H24">
+        <v>15.5</v>
       </c>
       <c r="I24" s="2">
         <f t="shared" ref="I24:I26" si="5">(G24*$G$20)+$H$20</f>
-        <v>6.370294E-2</v>
+        <v>0.49929999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>200</v>
       </c>
+      <c r="B25">
+        <v>189.8</v>
+      </c>
+      <c r="C25">
+        <v>189.8</v>
+      </c>
       <c r="D25" s="2">
         <f t="shared" si="3"/>
-        <v>0.82851181481162106</v>
+        <v>0.80814226429586289</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="4"/>
-        <v>3.7247339999999997E-2</v>
+        <v>1.0866917999999999</v>
+      </c>
+      <c r="G25">
+        <v>10.62</v>
+      </c>
+      <c r="H25">
+        <v>34.200000000000003</v>
       </c>
       <c r="I25" s="2">
         <f t="shared" si="5"/>
-        <v>6.370294E-2</v>
+        <v>1.0941639999999999</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>300</v>
       </c>
+      <c r="B26">
+        <v>292.89999999999998</v>
+      </c>
+      <c r="C26">
+        <v>293.2</v>
+      </c>
       <c r="D26" s="2">
         <f t="shared" si="3"/>
-        <v>0.62713063627943266</v>
+        <v>0.62561548031558156</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="4"/>
-        <v>3.7247339999999997E-2</v>
+        <v>1.6455968999999997</v>
+      </c>
+      <c r="G26">
+        <v>23.02</v>
+      </c>
+      <c r="H26">
+        <v>76</v>
       </c>
       <c r="I26" s="2">
         <f t="shared" si="5"/>
-        <v>6.370294E-2</v>
+        <v>2.2994439999999998</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>400</v>
       </c>
+      <c r="B27">
+        <v>398.8</v>
+      </c>
+      <c r="C27">
+        <v>399</v>
+      </c>
       <c r="D27" s="2">
         <f t="shared" si="3"/>
-        <v>0.42574945774724415</v>
+        <v>0.44308869633530029</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="4"/>
-        <v>3.7247339999999997E-2</v>
+        <v>2.2196807999999999</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>450</v>
       </c>
+      <c r="B28">
+        <v>445.3</v>
+      </c>
+      <c r="C28">
+        <v>447.3</v>
+      </c>
       <c r="D28" s="2">
         <f t="shared" si="3"/>
-        <v>0.3250588684811499</v>
+        <v>0.35182530434515963</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="4"/>
-        <v>3.7247339999999997E-2</v>
+        <v>2.4717573000000002</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
@@ -35384,23 +35662,34 @@
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="L36">
-        <v>488.73603487999998</v>
+      <c r="L36" s="14">
+        <f>O36*-1</f>
+        <v>569.54760304615365</v>
       </c>
       <c r="M36">
-        <v>605.86338649000004</v>
-      </c>
-      <c r="U36">
-        <v>5.3692899999999997E-3</v>
+        <f>P36</f>
+        <v>649.52997672948709</v>
+      </c>
+      <c r="O36" s="14" cm="1">
+        <f t="array" ref="O36:P36">LINEST(C23:C28,D23:D28,1,0)</f>
+        <v>-569.54760304615365</v>
+      </c>
+      <c r="P36">
+        <v>649.52997672948709</v>
+      </c>
+      <c r="U36" s="14" cm="1">
+        <f t="array" ref="U36:V36">LINEST(E23:E28,C23:C28)</f>
+        <v>5.4062969847480857E-3</v>
       </c>
       <c r="V36">
-        <v>7.2362850000000006E-2</v>
-      </c>
-      <c r="AD36">
-        <v>0.16469487999999999</v>
+        <v>5.8712707379270146E-2</v>
+      </c>
+      <c r="AD36" cm="1">
+        <f t="array" ref="AD36:AE36">LINEST(I23:I26,H23:H26,1,0)</f>
+        <v>3.0056656326512957E-2</v>
       </c>
       <c r="AE36">
-        <v>9.5055399999999998E-3</v>
+        <v>3.1292574939330242E-2</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
@@ -35474,96 +35763,156 @@
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="B41">
+        <v>32.6</v>
+      </c>
+      <c r="C41">
+        <v>31.5</v>
       </c>
       <c r="D41" s="2">
         <f t="shared" ref="D41:D46" si="6">($C$38-A41)/$B$38</f>
-        <v>1.1275641362613551</v>
+        <v>1.0819324402662849</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" ref="E41:E46" si="7">(B41*$D$38)+$E$38</f>
-        <v>5.7785999999999997E-2</v>
+        <v>0.23451059999999999</v>
+      </c>
+      <c r="G41">
+        <v>-0.33</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
       </c>
       <c r="I41" s="2">
         <f>(G41*$G$38)+$H$38</f>
-        <v>6.1899999999999997E-2</v>
+        <v>2.9823999999999996E-2</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>100</v>
+        <v>140</v>
+      </c>
+      <c r="B42">
+        <v>98.1</v>
+      </c>
+      <c r="C42">
+        <v>96.6</v>
       </c>
       <c r="D42" s="2">
         <f t="shared" si="6"/>
-        <v>0.9906690482761441</v>
+        <v>0.91765833468403168</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" si="7"/>
-        <v>5.7785999999999997E-2</v>
+        <v>0.58958609999999989</v>
+      </c>
+      <c r="G42">
+        <v>5.01</v>
+      </c>
+      <c r="H42">
+        <v>15.3</v>
       </c>
       <c r="I42" s="2">
         <f>(G42*$G$38)+$H$38</f>
-        <v>6.1899999999999997E-2</v>
+        <v>0.54887199999999992</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>200</v>
       </c>
+      <c r="B43">
+        <v>162.1</v>
+      </c>
+      <c r="C43">
+        <v>160.1</v>
+      </c>
       <c r="D43" s="2">
         <f t="shared" si="6"/>
         <v>0.80814226429586289</v>
       </c>
       <c r="E43" s="2">
         <f t="shared" si="7"/>
-        <v>5.7785999999999997E-2</v>
+        <v>0.93653009999999992</v>
+      </c>
+      <c r="G43">
+        <v>11.88</v>
+      </c>
+      <c r="H43">
+        <v>36</v>
       </c>
       <c r="I43" s="2">
         <f>(G43*$G$38)+$H$38</f>
-        <v>6.1899999999999997E-2</v>
+        <v>1.2166360000000001</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>300</v>
       </c>
+      <c r="B44">
+        <v>262.60000000000002</v>
+      </c>
+      <c r="C44">
+        <v>264.10000000000002</v>
+      </c>
       <c r="D44" s="2">
         <f t="shared" si="6"/>
         <v>0.62561548031558156</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" si="7"/>
-        <v>5.7785999999999997E-2</v>
+        <v>1.4813406</v>
+      </c>
+      <c r="G44">
+        <v>25.06</v>
+      </c>
+      <c r="H44">
+        <v>75.900000000000006</v>
       </c>
       <c r="I44" s="2">
         <f>(G44*$G$38)+$H$38</f>
-        <v>6.1899999999999997E-2</v>
+        <v>2.4977319999999996</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>400</v>
       </c>
+      <c r="B45">
+        <v>369.1</v>
+      </c>
+      <c r="C45">
+        <v>367</v>
+      </c>
       <c r="D45" s="2">
         <f t="shared" si="6"/>
         <v>0.44308869633530029</v>
       </c>
       <c r="E45" s="2">
         <f t="shared" si="7"/>
-        <v>5.7785999999999997E-2</v>
+        <v>2.0586771000000001</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>450</v>
       </c>
+      <c r="B46">
+        <v>417.2</v>
+      </c>
+      <c r="C46">
+        <v>415.5</v>
+      </c>
       <c r="D46" s="2">
         <f t="shared" si="6"/>
         <v>0.35182530434515963</v>
       </c>
       <c r="E46" s="2">
         <f t="shared" si="7"/>
-        <v>5.7785999999999997E-2</v>
+        <v>2.3194271999999998</v>
       </c>
     </row>
     <row r="53" spans="12:31" x14ac:dyDescent="0.25">
@@ -35587,23 +35936,34 @@
       </c>
     </row>
     <row r="54" spans="12:31" x14ac:dyDescent="0.25">
-      <c r="L54">
-        <v>499.06205584000003</v>
+      <c r="L54" s="14">
+        <f>O54*-1</f>
+        <v>539.56418917541885</v>
       </c>
       <c r="M54">
-        <v>619.74886147999996</v>
-      </c>
-      <c r="U54">
-        <v>5.4236600000000003E-3</v>
+        <f>P54</f>
+        <v>602.70317305921787</v>
+      </c>
+      <c r="O54" s="14" cm="1">
+        <f t="array" ref="O54:P54">LINEST(C41:C46,D41:D46,1,0)</f>
+        <v>-539.56418917541885</v>
+      </c>
+      <c r="P54">
+        <v>602.70317305921787</v>
+      </c>
+      <c r="U54" s="14" cm="1">
+        <f t="array" ref="U54:V54">LINEST(E41:E46,C41:C46)</f>
+        <v>5.4231308475210733E-3</v>
       </c>
       <c r="V54">
-        <v>5.7833210000000003E-2</v>
-      </c>
-      <c r="AD54">
-        <v>0.16179969</v>
+        <v>6.3546107454811818E-2</v>
+      </c>
+      <c r="AD54" cm="1">
+        <f t="array" ref="AD54:AE54">LINEST(I41:I44,H41:H44,1,0)</f>
+        <v>3.2426681084678076E-2</v>
       </c>
       <c r="AE54">
-        <v>8.044519E-2</v>
+        <v>4.2097541507237102E-2</v>
       </c>
     </row>
     <row r="64" spans="12:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -36239,8 +36599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FC39B9-7D84-4A00-8133-666937CDF7F6}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView zoomScale="137" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36298,11 +36658,11 @@
       </c>
       <c r="F2" s="15">
         <f>'HV1'!AD18</f>
-        <v>2.0991286875549093E-2</v>
+        <v>2.740312627140672E-2</v>
       </c>
       <c r="G2" s="15">
         <f>'HV1'!AE18</f>
-        <v>0.29073664380028919</v>
+        <v>6.0617217853841998E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -36327,11 +36687,11 @@
       </c>
       <c r="F3" s="16">
         <f>'HV1'!AD36</f>
-        <v>2.9390766131635701E-2</v>
+        <v>3.1960611463623764E-2</v>
       </c>
       <c r="G3" s="16">
         <f>'HV1'!AE36</f>
-        <v>0.14087913188104451</v>
+        <v>3.4224996224523574E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -36356,11 +36716,11 @@
       </c>
       <c r="F4" s="16">
         <f>'HV1'!AD54</f>
-        <v>3.1744210452351478E-2</v>
+        <v>3.1703796340104694E-2</v>
       </c>
       <c r="G4" s="16">
         <f>'HV1'!AE54</f>
-        <v>3.117899270854263E-3</v>
+        <v>1.0607757848628552E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -36369,27 +36729,27 @@
       </c>
       <c r="B5" s="15">
         <f>'HV2'!L18</f>
-        <v>483.74161550000002</v>
+        <v>563.3735881846153</v>
       </c>
       <c r="C5" s="15">
         <f>'HV2'!M18</f>
-        <v>591.05310112999996</v>
+        <v>645.63728925128203</v>
       </c>
       <c r="D5" s="15">
         <f>'HV2'!U18</f>
-        <v>5.4416999999999998E-3</v>
+        <v>5.4205418588699032E-3</v>
       </c>
       <c r="E5" s="15">
         <f>'HV2'!V18</f>
-        <v>5.9830880000000003E-2</v>
+        <v>7.6328163253886361E-2</v>
       </c>
       <c r="F5" s="15">
         <f>'HV2'!AD18</f>
-        <v>0.16231470000000001</v>
+        <v>3.2382223884500419E-2</v>
       </c>
       <c r="G5" s="15">
         <f>'HV2'!AE36</f>
-        <v>9.5055399999999998E-3</v>
+        <v>3.1292574939330242E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -36398,27 +36758,27 @@
       </c>
       <c r="B6" s="16">
         <f>'HV2'!L36</f>
-        <v>488.73603487999998</v>
+        <v>569.54760304615365</v>
       </c>
       <c r="C6" s="16">
         <f>'HV2'!M36</f>
-        <v>605.86338649000004</v>
+        <v>649.52997672948709</v>
       </c>
       <c r="D6" s="17">
         <f>'HV2'!U36</f>
-        <v>5.3692899999999997E-3</v>
+        <v>5.4062969847480857E-3</v>
       </c>
       <c r="E6" s="17">
         <f>'HV2'!V36</f>
-        <v>7.2362850000000006E-2</v>
+        <v>5.8712707379270146E-2</v>
       </c>
       <c r="F6" s="16">
         <f>'HV2'!AD18</f>
-        <v>0.16231470000000001</v>
+        <v>3.2382223884500419E-2</v>
       </c>
       <c r="G6" s="16">
         <f>'HV2'!AE18</f>
-        <v>0.17908824000000001</v>
+        <v>3.3218828963759828E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -36427,27 +36787,27 @@
       </c>
       <c r="B7" s="16">
         <f>'HV2'!L54</f>
-        <v>499.06205584000003</v>
+        <v>539.56418917541885</v>
       </c>
       <c r="C7" s="16">
         <f>'HV2'!M54</f>
-        <v>619.74886147999996</v>
+        <v>602.70317305921787</v>
       </c>
       <c r="D7" s="17">
         <f>'HV2'!U54</f>
-        <v>5.4236600000000003E-3</v>
+        <v>5.4231308475210733E-3</v>
       </c>
       <c r="E7" s="17">
         <f>'HV2'!V54</f>
-        <v>5.7833210000000003E-2</v>
+        <v>6.3546107454811818E-2</v>
       </c>
       <c r="F7" s="16">
         <f>'HV2'!AD54</f>
-        <v>0.16179969</v>
+        <v>3.2426681084678076E-2</v>
       </c>
       <c r="G7" s="16">
         <f>'HV2'!AE54</f>
-        <v>8.044519E-2</v>
+        <v>4.2097541507237102E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -36567,27 +36927,27 @@
       </c>
       <c r="B13" s="2">
         <f t="shared" ref="B13:G13" si="0">AVERAGE(B2:B10)</f>
-        <v>348.33386012017087</v>
+        <v>370.66115725196954</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>417.64647637905983</v>
+        <v>426.66926415016951</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>3.6136259275340765E-3</v>
+        <v>3.6153281154384168E-3</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>4.5625004009223862E-2</v>
+        <v>4.6576119352331448E-2</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>6.3172817051059579E-2</v>
+        <v>2.0917629214312679E-2</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="0"/>
-        <v>7.8196960550243111E-2</v>
+        <v>2.3562101926369032E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -36596,27 +36956,27 @@
       </c>
       <c r="B14" s="2">
         <f t="shared" ref="B14:G14" si="1">MEDIAN(B2:B10)</f>
-        <v>488.73603487999998</v>
+        <v>545.58905390769223</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="1"/>
-        <v>605.86338649000004</v>
+        <v>639.60459904102572</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>5.3752488081681782E-3</v>
+        <v>5.4062969847480857E-3</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="1"/>
-        <v>5.7833210000000003E-2</v>
+        <v>5.8712707379270146E-2</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="1"/>
-        <v>2.9390766131635701E-2</v>
+        <v>3.1703796340104694E-2</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="1"/>
-        <v>9.5055399999999998E-3</v>
+        <v>3.1292574939330242E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -36665,11 +37025,11 @@
       </c>
       <c r="F21" s="2">
         <f t="shared" si="2"/>
-        <v>2.7375421153178758E-2</v>
+        <v>3.0355844691711726E-2</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="2"/>
-        <v>0.14491122498406264</v>
+        <v>3.5149990642331375E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -36694,11 +37054,11 @@
       </c>
       <c r="F22" s="2">
         <f t="shared" si="3"/>
-        <v>2.9390766131635701E-2</v>
+        <v>3.1703796340104694E-2</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="3"/>
-        <v>0.14087913188104451</v>
+        <v>3.4224996224523574E-2</v>
       </c>
     </row>
   </sheetData>
@@ -36711,7 +37071,7 @@
   <dimension ref="A1:AE54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HV_Power_Supply_PcApp/HV_Power_Supply_PcApp/bin/Debug/Kalibrace_2024.xlsx
+++ b/HV_Power_Supply_PcApp/HV_Power_Supply_PcApp/bin/Debug/Kalibrace_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CODE_temp\Atlas_HV_Power_Supply_PcApp\HV_Power_Supply_PcApp\HV_Power_Supply_PcApp\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomas/Documents/_temp/Atlas_HV_Power_Supply_PcApp/HV_Power_Supply_PcApp/HV_Power_Supply_PcApp/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C54F13-B85E-42F2-8D1D-1495EB26D818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5634CA-4F3F-FD4E-9C1A-830FF0358846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{42646E07-1115-40A8-A93A-C57D4D85C566}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="17560" windowHeight="16000" activeTab="3" xr2:uid="{42646E07-1115-40A8-A93A-C57D4D85C566}"/>
   </bookViews>
   <sheets>
     <sheet name="HV1" sheetId="1" r:id="rId1"/>
@@ -291,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -336,6 +336,7 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -4476,22 +4477,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.12274683903909</c:v>
+                  <c:v>1.0819324402662849</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0314831694922855</c:v>
+                  <c:v>0.9906690482761441</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.84895583039867617</c:v>
+                  <c:v>0.80814226429586289</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66642849130506698</c:v>
+                  <c:v>0.62561548031558156</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.48390115221145774</c:v>
+                  <c:v>0.44308869633530029</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.30137381311784855</c:v>
+                  <c:v>0.35182530434515963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4500,8 +4501,26 @@
             <c:numRef>
               <c:f>'HV3'!$C$5:$C$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>30.001000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>178.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>286.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>395.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>435.7</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4606,7 +4625,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5252,22 +5271,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.1749399482292053</c:v>
+                  <c:v>1.0819324402662849</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.080479395601998</c:v>
+                  <c:v>0.9906690482761441</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.89155829034758372</c:v>
+                  <c:v>0.80814226429586289</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.70263718509316941</c:v>
+                  <c:v>0.62561548031558156</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.51371607983875511</c:v>
+                  <c:v>0.44308869633530029</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.32479497458434081</c:v>
+                  <c:v>0.35182530434515963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5278,6 +5297,24 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>76.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>183.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>293.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>404.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>454.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5628,22 +5665,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.1762187532154971</c:v>
+                  <c:v>1.0819324402662849</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0816553896949421</c:v>
+                  <c:v>0.9906690482761441</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.89252866265383202</c:v>
+                  <c:v>0.80814226429586289</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.70340193561272191</c:v>
+                  <c:v>0.62561548031558156</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.51427520857161191</c:v>
+                  <c:v>0.44308869633530029</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3251484815305018</c:v>
+                  <c:v>0.35182530434515963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5654,6 +5691,24 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>29.98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>182.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>287.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>394.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>443.6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6009,8 +6064,26 @@
             <c:numRef>
               <c:f>'HV3'!$C$5:$C$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>30.001000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>178.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>286.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>395.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>435.7</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6021,22 +6094,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.6440999999999998E-2</c:v>
+                  <c:v>0.2014425</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6440999999999998E-2</c:v>
+                  <c:v>0.43237709999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.6440999999999998E-2</c:v>
+                  <c:v>1.0026663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.6440999999999998E-2</c:v>
+                  <c:v>1.5800027999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.6440999999999998E-2</c:v>
+                  <c:v>2.1627603</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.6440999999999998E-2</c:v>
+                  <c:v>2.4202577999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6080,7 +6153,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6395,6 +6468,24 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>76.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>183.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>293.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>404.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>454.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6405,22 +6496,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.6440999999999998E-2</c:v>
+                  <c:v>0.4654452</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6440999999999998E-2</c:v>
+                  <c:v>0.4654452</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.6440999999999998E-2</c:v>
+                  <c:v>1.0476605999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.6440999999999998E-2</c:v>
+                  <c:v>1.6428863999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.6440999999999998E-2</c:v>
+                  <c:v>2.2381121999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.6440999999999998E-2</c:v>
+                  <c:v>2.5075358999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6779,6 +6870,24 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>29.98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>182.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>287.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>394.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>443.6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6789,22 +6898,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.6440999999999998E-2</c:v>
+                  <c:v>0.23613689999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6440999999999998E-2</c:v>
+                  <c:v>0.49471859999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.6440999999999998E-2</c:v>
+                  <c:v>1.0639235999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.6440999999999998E-2</c:v>
+                  <c:v>1.6342127999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.6440999999999998E-2</c:v>
+                  <c:v>2.2077545999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.6440999999999998E-2</c:v>
+                  <c:v>2.4685047</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7163,6 +7272,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7173,16 +7294,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.15569659999999999</c:v>
+                  <c:v>2.3019999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15569659999999999</c:v>
+                  <c:v>0.58289199999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15569659999999999</c:v>
+                  <c:v>1.6802799999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15569659999999999</c:v>
+                  <c:v>2.5162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7541,6 +7662,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7551,16 +7684,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.15569659999999999</c:v>
+                  <c:v>1.0383999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15569659999999999</c:v>
+                  <c:v>0.49929999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15569659999999999</c:v>
+                  <c:v>1.0941639999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15569659999999999</c:v>
+                  <c:v>2.2994439999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7919,6 +8052,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.900000000000006</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7929,16 +8074,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.15569659999999999</c:v>
+                  <c:v>2.9823999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15569659999999999</c:v>
+                  <c:v>0.54887199999999992</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15569659999999999</c:v>
+                  <c:v>1.2166360000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15569659999999999</c:v>
+                  <c:v>2.4977319999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -34268,27 +34413,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E729D20-13F7-4C55-8C83-89C49955F856}">
   <dimension ref="A1:AE54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE18" sqref="AE18"/>
+    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="12" max="12" width="19.5" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" customWidth="1"/>
-    <col min="21" max="21" width="17.5703125" customWidth="1"/>
-    <col min="22" max="22" width="18.42578125" customWidth="1"/>
-    <col min="30" max="30" width="18.7109375" customWidth="1"/>
+    <col min="15" max="15" width="14.83203125" customWidth="1"/>
+    <col min="21" max="21" width="17.5" customWidth="1"/>
+    <col min="22" max="22" width="18.5" customWidth="1"/>
+    <col min="30" max="30" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -34311,7 +34456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>547.86479999999995</v>
       </c>
@@ -34331,7 +34476,7 @@
         <v>6.8692000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -34357,7 +34502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>50</v>
       </c>
@@ -34386,7 +34531,7 @@
         <v>3.5430340000000005E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>100</v>
       </c>
@@ -34415,7 +34560,7 @@
         <v>0.44133075999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>200</v>
       </c>
@@ -34444,7 +34589,7 @@
         <v>0.96080757999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>300</v>
       </c>
@@ -34473,7 +34618,7 @@
         <v>1.9535194</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>400</v>
       </c>
@@ -34492,7 +34637,7 @@
         <v>2.2977431999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>450</v>
       </c>
@@ -34511,12 +34656,12 @@
         <v>2.5443986999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="L17" t="s">
         <v>25</v>
       </c>
@@ -34536,7 +34681,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="L18" s="14">
         <f>O18*-1</f>
         <v>557.47350572307676</v>
@@ -34567,7 +34712,7 @@
         <v>6.0617217853841998E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -34590,7 +34735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>547.86479999999995</v>
       </c>
@@ -34610,7 +34755,7 @@
         <v>6.1899999999999997E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>1</v>
       </c>
@@ -34636,7 +34781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>50</v>
       </c>
@@ -34665,7 +34810,7 @@
         <v>2.3019999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>100</v>
       </c>
@@ -34694,7 +34839,7 @@
         <v>0.75590799999999991</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>200</v>
       </c>
@@ -34723,7 +34868,7 @@
         <v>1.0387600000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>300</v>
       </c>
@@ -34752,7 +34897,7 @@
         <v>2.7105999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>400</v>
       </c>
@@ -34771,7 +34916,7 @@
         <v>2.2364858999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>450</v>
       </c>
@@ -34790,7 +34935,7 @@
         <v>2.4928992000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="L35" t="s">
         <v>25</v>
       </c>
@@ -34810,7 +34955,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="L36" s="14">
         <f>O36*-1</f>
         <v>560.40247523076903</v>
@@ -34841,7 +34986,7 @@
         <v>3.4224996224523574E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
@@ -34864,7 +35009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>547.86479999999995</v>
       </c>
@@ -34884,7 +35029,7 @@
         <v>6.1899999999999997E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>1</v>
       </c>
@@ -34910,7 +35055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>50</v>
       </c>
@@ -34939,7 +35084,7 @@
         <v>2.3019999999999999E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>100</v>
       </c>
@@ -34968,7 +35113,7 @@
         <v>0.50513199999999991</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>200</v>
       </c>
@@ -34997,7 +35142,7 @@
         <v>0.93864399999999981</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>300</v>
       </c>
@@ -35026,7 +35171,7 @@
         <v>2.659084</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>400</v>
       </c>
@@ -35045,7 +35190,7 @@
         <v>2.2473278999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>450</v>
       </c>
@@ -35064,7 +35209,7 @@
         <v>2.4977781000000001</v>
       </c>
     </row>
-    <row r="53" spans="12:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="12:31" x14ac:dyDescent="0.2">
       <c r="L53" t="s">
         <v>25</v>
       </c>
@@ -35084,7 +35229,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="12:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="12:31" x14ac:dyDescent="0.2">
       <c r="L54" s="14">
         <f>O54*-1</f>
         <v>545.58905390769223</v>
@@ -35127,19 +35272,19 @@
   <dimension ref="A1:AE67"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="L18" sqref="L18:AE18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+    <col min="12" max="12" width="18.5" customWidth="1"/>
+    <col min="15" max="15" width="17.83203125" customWidth="1"/>
+    <col min="19" max="19" width="11.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -35162,7 +35307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>547.86479999999995</v>
       </c>
@@ -35182,7 +35327,7 @@
         <v>6.1899999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -35208,7 +35353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>50</v>
       </c>
@@ -35237,7 +35382,7 @@
         <v>2.3019999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>100</v>
       </c>
@@ -35266,7 +35411,7 @@
         <v>0.58289199999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>200</v>
       </c>
@@ -35295,7 +35440,7 @@
         <v>1.6802799999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>300</v>
       </c>
@@ -35324,7 +35469,7 @@
         <v>2.5162</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>400</v>
       </c>
@@ -35343,7 +35488,7 @@
         <v>2.2348596000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>450</v>
       </c>
@@ -35362,12 +35507,12 @@
         <v>2.4977781000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="L17" t="s">
         <v>25</v>
       </c>
@@ -35387,7 +35532,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="L18" s="14">
         <f>O18*-1</f>
         <v>563.3735881846153</v>
@@ -35418,7 +35563,7 @@
         <v>3.3218828963759828E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -35441,7 +35586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>547.86479999999995</v>
       </c>
@@ -35461,7 +35606,7 @@
         <v>6.1899999999999997E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>1</v>
       </c>
@@ -35487,7 +35632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>50</v>
       </c>
@@ -35516,7 +35661,7 @@
         <v>1.0383999999999997E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>100</v>
       </c>
@@ -35545,7 +35690,7 @@
         <v>0.49929999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>200</v>
       </c>
@@ -35574,7 +35719,7 @@
         <v>1.0941639999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>300</v>
       </c>
@@ -35603,7 +35748,7 @@
         <v>2.2994439999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>400</v>
       </c>
@@ -35622,7 +35767,7 @@
         <v>2.2196807999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>450</v>
       </c>
@@ -35641,7 +35786,7 @@
         <v>2.4717573000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="L35" t="s">
         <v>25</v>
       </c>
@@ -35661,7 +35806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="L36" s="14">
         <f>O36*-1</f>
         <v>569.54760304615365</v>
@@ -35692,7 +35837,7 @@
         <v>3.1292574939330242E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
@@ -35715,7 +35860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>547.86479999999995</v>
       </c>
@@ -35735,7 +35880,7 @@
         <v>6.1899999999999997E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>1</v>
       </c>
@@ -35761,7 +35906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>50</v>
       </c>
@@ -35790,7 +35935,7 @@
         <v>2.9823999999999996E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>140</v>
       </c>
@@ -35819,7 +35964,7 @@
         <v>0.54887199999999992</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>200</v>
       </c>
@@ -35848,7 +35993,7 @@
         <v>1.2166360000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>300</v>
       </c>
@@ -35877,7 +36022,7 @@
         <v>2.4977319999999996</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>400</v>
       </c>
@@ -35896,7 +36041,7 @@
         <v>2.0586771000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>450</v>
       </c>
@@ -35915,7 +36060,7 @@
         <v>2.3194271999999998</v>
       </c>
     </row>
-    <row r="53" spans="12:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="12:31" x14ac:dyDescent="0.2">
       <c r="L53" t="s">
         <v>25</v>
       </c>
@@ -35935,7 +36080,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="12:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="12:31" x14ac:dyDescent="0.2">
       <c r="L54" s="14">
         <f>O54*-1</f>
         <v>539.56418917541885</v>
@@ -35966,16 +36111,16 @@
         <v>4.2097541507237102E-2</v>
       </c>
     </row>
-    <row r="64" spans="12:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="65" spans="19:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="12:31" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="19:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="S65" s="3"/>
       <c r="T65" s="4"/>
     </row>
-    <row r="66" spans="19:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="19:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="S66" s="5"/>
       <c r="T66" s="6"/>
     </row>
-    <row r="67" spans="19:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="19:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="S67" s="5"/>
       <c r="T67" s="6"/>
     </row>
@@ -35988,18 +36133,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A769A18D-89B8-4411-AAC6-D3B85F6C15CE}">
-  <dimension ref="A1:AE53"/>
+  <dimension ref="A1:AE54"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AL26" sqref="AL26"/>
+    <sheetView topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q63" sqref="Q63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.1640625" customWidth="1"/>
+    <col min="15" max="15" width="22" customWidth="1"/>
+    <col min="21" max="21" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -36022,27 +36170,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="2">
-        <v>547.86313380000001</v>
+        <v>547.86479999999995</v>
       </c>
       <c r="C2" s="2">
-        <v>665.11160170000005</v>
+        <v>642.7527</v>
       </c>
       <c r="D2" s="2">
-        <v>5.4501000000000003E-3</v>
+        <v>5.4209999999999996E-3</v>
       </c>
       <c r="E2" s="2">
-        <v>5.6440999999999998E-2</v>
+        <v>5.7785999999999997E-2</v>
       </c>
       <c r="G2" s="2">
-        <v>0.313554</v>
+        <v>9.7199999999999995E-2</v>
       </c>
       <c r="H2" s="2">
-        <v>0.15569659999999999</v>
+        <v>6.1899999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -36068,121 +36216,161 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>50</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="18">
+        <v>26.5</v>
+      </c>
+      <c r="C5" s="18">
+        <v>30.001000000000001</v>
+      </c>
       <c r="D5" s="2">
         <f>($C$2-A5)/$B$2</f>
-        <v>1.12274683903909</v>
+        <v>1.0819324402662849</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" ref="E5:E10" si="0">(B5*$D$2)+$E$2</f>
-        <v>5.6440999999999998E-2</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+        <v>0.2014425</v>
+      </c>
+      <c r="G5">
+        <v>-0.4</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
       <c r="I5" s="2">
         <f>(G5*$G$2)+$H$2</f>
-        <v>0.15569659999999999</v>
+        <v>2.3019999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>100</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="18">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="C6" s="18">
+        <v>72.400000000000006</v>
+      </c>
       <c r="D6" s="2">
         <f t="shared" ref="D6:D10" si="1">($C$2-A6)/$B$2</f>
-        <v>1.0314831694922855</v>
+        <v>0.9906690482761441</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>5.6440999999999998E-2</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+        <v>0.43237709999999996</v>
+      </c>
+      <c r="G6">
+        <v>5.36</v>
+      </c>
+      <c r="H6">
+        <v>16.600000000000001</v>
+      </c>
       <c r="I6" s="2">
         <f t="shared" ref="I6:I8" si="2">(G6*$G$2)+$H$2</f>
-        <v>0.15569659999999999</v>
+        <v>0.58289199999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>200</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="18">
+        <v>174.3</v>
+      </c>
+      <c r="C7" s="18">
+        <v>178.6</v>
+      </c>
       <c r="D7" s="2">
         <f t="shared" si="1"/>
-        <v>0.84895583039867617</v>
+        <v>0.80814226429586289</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>5.6440999999999998E-2</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+        <v>1.0026663</v>
+      </c>
+      <c r="G7">
+        <v>16.649999999999999</v>
+      </c>
+      <c r="H7">
+        <v>50.8</v>
+      </c>
       <c r="I7" s="2">
         <f t="shared" si="2"/>
-        <v>0.15569659999999999</v>
+        <v>1.6802799999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>300</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="18">
+        <v>280.8</v>
+      </c>
+      <c r="C8" s="18">
+        <v>286.3</v>
+      </c>
       <c r="D8" s="2">
         <f t="shared" si="1"/>
-        <v>0.66642849130506698</v>
+        <v>0.62561548031558156</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>5.6440999999999998E-2</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+        <v>1.5800027999999999</v>
+      </c>
+      <c r="G8">
+        <v>25.25</v>
+      </c>
+      <c r="H8">
+        <v>76.8</v>
+      </c>
       <c r="I8" s="2">
         <f t="shared" si="2"/>
-        <v>0.15569659999999999</v>
+        <v>2.5162</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>400</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="B9" s="18">
+        <v>388.3</v>
+      </c>
+      <c r="C9" s="18">
+        <v>395.3</v>
+      </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
-        <v>0.48390115221145774</v>
+        <v>0.44308869633530029</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>5.6440999999999998E-2</v>
+        <v>2.1627603</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>500</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="B10" s="18">
+        <v>435.8</v>
+      </c>
+      <c r="C10" s="18">
+        <v>435.7</v>
+      </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>0.30137381311784855</v>
+        <v>0.35182530434515963</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>5.6440999999999998E-2</v>
+        <v>2.4202577999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="L17" t="s">
         <v>25</v>
       </c>
@@ -36202,7 +36390,38 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="L18" s="14">
+        <f>O18*-1</f>
+        <v>568.76710642338446</v>
+      </c>
+      <c r="M18">
+        <f>P18</f>
+        <v>640.78728852405129</v>
+      </c>
+      <c r="O18" s="14" cm="1">
+        <f t="array" ref="O18:P18">LINEST(C5:C10,D5:D10,1,0)</f>
+        <v>-568.76710642338446</v>
+      </c>
+      <c r="P18">
+        <v>640.78728852405129</v>
+      </c>
+      <c r="U18" s="14" cm="1">
+        <f t="array" ref="U18:V18">LINEST(E5:E10,C5:C10)</f>
+        <v>5.423582293946007E-3</v>
+      </c>
+      <c r="V18">
+        <v>3.5951042465500738E-2</v>
+      </c>
+      <c r="AD18" cm="1">
+        <f t="array" ref="AD18:AE18">LINEST(I5:I8,H5:H8,1,0)</f>
+        <v>3.2382223884500419E-2</v>
+      </c>
+      <c r="AE18">
+        <v>3.3218828963759828E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -36225,27 +36444,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
-        <v>529.32148510000002</v>
+        <v>547.86479999999995</v>
       </c>
       <c r="C20" s="2">
-        <v>671.92095830000005</v>
+        <v>642.7527</v>
       </c>
       <c r="D20" s="2">
-        <v>5.4501000000000003E-3</v>
+        <v>5.4209999999999996E-3</v>
       </c>
       <c r="E20" s="2">
-        <v>5.6440999999999998E-2</v>
+        <v>5.7785999999999997E-2</v>
       </c>
       <c r="G20" s="2">
-        <v>0.313554</v>
+        <v>9.7199999999999995E-2</v>
       </c>
       <c r="H20" s="2">
-        <v>0.15569659999999999</v>
+        <v>6.1899999999999997E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>1</v>
       </c>
@@ -36271,101 +36490,161 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>50</v>
       </c>
+      <c r="B23">
+        <v>75.2</v>
+      </c>
+      <c r="C23">
+        <v>76.099999999999994</v>
+      </c>
       <c r="D23" s="2">
         <f>($C$20-A23)/$B$20</f>
-        <v>1.1749399482292053</v>
+        <v>1.0819324402662849</v>
       </c>
       <c r="E23" s="2">
         <f>(B23*$D$20)+$E$20</f>
-        <v>5.6440999999999998E-2</v>
+        <v>0.4654452</v>
+      </c>
+      <c r="G23">
+        <v>-0.53</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
       </c>
       <c r="I23" s="2">
         <f>(G23*$G$20)+$H$20</f>
-        <v>0.15569659999999999</v>
+        <v>1.0383999999999997E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>100</v>
       </c>
+      <c r="B24">
+        <v>75.2</v>
+      </c>
+      <c r="C24">
+        <v>76.099999999999994</v>
+      </c>
       <c r="D24" s="2">
         <f t="shared" ref="D24:D28" si="3">($C$20-A24)/$B$20</f>
-        <v>1.080479395601998</v>
+        <v>0.9906690482761441</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" ref="E24:E28" si="4">(B24*$D$20)+$E$20</f>
-        <v>5.6440999999999998E-2</v>
+        <v>0.4654452</v>
+      </c>
+      <c r="G24">
+        <v>4.5</v>
+      </c>
+      <c r="H24">
+        <v>15.5</v>
       </c>
       <c r="I24" s="2">
         <f t="shared" ref="I24:I26" si="5">(G24*$G$20)+$H$20</f>
-        <v>0.15569659999999999</v>
+        <v>0.49929999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>200</v>
       </c>
+      <c r="B25">
+        <v>182.6</v>
+      </c>
+      <c r="C25">
+        <v>183.4</v>
+      </c>
       <c r="D25" s="2">
         <f t="shared" si="3"/>
-        <v>0.89155829034758372</v>
+        <v>0.80814226429586289</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="4"/>
-        <v>5.6440999999999998E-2</v>
+        <v>1.0476605999999999</v>
+      </c>
+      <c r="G25">
+        <v>10.62</v>
+      </c>
+      <c r="H25">
+        <v>34.200000000000003</v>
       </c>
       <c r="I25" s="2">
         <f t="shared" si="5"/>
-        <v>0.15569659999999999</v>
+        <v>1.0941639999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>300</v>
       </c>
+      <c r="B26">
+        <v>292.39999999999998</v>
+      </c>
+      <c r="C26">
+        <v>293.3</v>
+      </c>
       <c r="D26" s="2">
         <f t="shared" si="3"/>
-        <v>0.70263718509316941</v>
+        <v>0.62561548031558156</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="4"/>
-        <v>5.6440999999999998E-2</v>
+        <v>1.6428863999999996</v>
+      </c>
+      <c r="G26">
+        <v>23.02</v>
+      </c>
+      <c r="H26">
+        <v>76</v>
       </c>
       <c r="I26" s="2">
         <f t="shared" si="5"/>
-        <v>0.15569659999999999</v>
+        <v>2.2994439999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>400</v>
       </c>
+      <c r="B27">
+        <v>402.2</v>
+      </c>
+      <c r="C27">
+        <v>404.2</v>
+      </c>
       <c r="D27" s="2">
         <f t="shared" si="3"/>
-        <v>0.51371607983875511</v>
+        <v>0.44308869633530029</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="4"/>
-        <v>5.6440999999999998E-2</v>
+        <v>2.2381121999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>500</v>
+        <v>450</v>
+      </c>
+      <c r="B28">
+        <v>451.9</v>
+      </c>
+      <c r="C28">
+        <v>454.5</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="3"/>
-        <v>0.32479497458434081</v>
+        <v>0.35182530434515963</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="4"/>
-        <v>5.6440999999999998E-2</v>
+        <v>2.5075358999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="L35" t="s">
         <v>25</v>
       </c>
@@ -36385,7 +36664,38 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="L36" s="14">
+        <f>O36*-1</f>
+        <v>549.5083943999997</v>
+      </c>
+      <c r="M36">
+        <f>P36</f>
+        <v>641.86429143333328</v>
+      </c>
+      <c r="O36" s="14" cm="1">
+        <f t="array" ref="O36:P36">LINEST(C23:C28,D23:D28,1,0)</f>
+        <v>-549.5083943999997</v>
+      </c>
+      <c r="P36">
+        <v>641.86429143333328</v>
+      </c>
+      <c r="U36" s="14" cm="1">
+        <f t="array" ref="U36:V36">LINEST(E23:E28,C23:C28)</f>
+        <v>5.3993139740979119E-3</v>
+      </c>
+      <c r="V36">
+        <v>5.5844338688657125E-2</v>
+      </c>
+      <c r="AD36" cm="1">
+        <f t="array" ref="AD36:AE36">LINEST(I23:I26,H23:H26,1,0)</f>
+        <v>3.0056656326512957E-2</v>
+      </c>
+      <c r="AE36">
+        <v>3.1292574939330242E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
@@ -36408,27 +36718,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B38" s="2">
-        <v>528.74599780000005</v>
+        <v>547.86479999999995</v>
       </c>
       <c r="C38" s="2">
-        <v>671.92095830000005</v>
+        <v>642.7527</v>
       </c>
       <c r="D38" s="2">
-        <v>5.4501000000000003E-3</v>
+        <v>5.4209999999999996E-3</v>
       </c>
       <c r="E38" s="2">
-        <v>5.6440999999999998E-2</v>
+        <v>5.7785999999999997E-2</v>
       </c>
       <c r="G38" s="2">
-        <v>0.313554</v>
+        <v>9.7199999999999995E-2</v>
       </c>
       <c r="H38" s="2">
-        <v>0.15569659999999999</v>
+        <v>6.1899999999999997E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>1</v>
       </c>
@@ -36454,121 +36764,161 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>50</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="B41" s="2">
+        <v>32.9</v>
+      </c>
+      <c r="C41" s="2">
+        <v>29.98</v>
+      </c>
       <c r="D41" s="2">
         <f t="shared" ref="D41:D46" si="6">($C$38-A41)/$B$38</f>
-        <v>1.1762187532154971</v>
+        <v>1.0819324402662849</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" ref="E41:E46" si="7">(B41*$D$38)+$E$38</f>
-        <v>5.6440999999999998E-2</v>
-      </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+        <v>0.23613689999999998</v>
+      </c>
+      <c r="G41">
+        <v>-0.33</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
       <c r="I41" s="2">
         <f>(G41*$G$38)+$H$38</f>
-        <v>0.15569659999999999</v>
+        <v>2.9823999999999996E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>100</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+      <c r="B42" s="2">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="C42" s="2">
+        <v>77.599999999999994</v>
+      </c>
       <c r="D42" s="2">
         <f t="shared" si="6"/>
-        <v>1.0816553896949421</v>
+        <v>0.9906690482761441</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" si="7"/>
-        <v>5.6440999999999998E-2</v>
-      </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
+        <v>0.49471859999999995</v>
+      </c>
+      <c r="G42">
+        <v>5.01</v>
+      </c>
+      <c r="H42">
+        <v>15.3</v>
+      </c>
       <c r="I42" s="2">
         <f>(G42*$G$38)+$H$38</f>
-        <v>0.15569659999999999</v>
+        <v>0.54887199999999992</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>200</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+      <c r="B43" s="2">
+        <v>185.6</v>
+      </c>
+      <c r="C43" s="2">
+        <v>182.5</v>
+      </c>
       <c r="D43" s="2">
         <f t="shared" si="6"/>
-        <v>0.89252866265383202</v>
+        <v>0.80814226429586289</v>
       </c>
       <c r="E43" s="2">
         <f t="shared" si="7"/>
-        <v>5.6440999999999998E-2</v>
-      </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+        <v>1.0639235999999999</v>
+      </c>
+      <c r="G43">
+        <v>11.88</v>
+      </c>
+      <c r="H43">
+        <v>36</v>
+      </c>
       <c r="I43" s="2">
         <f>(G43*$G$38)+$H$38</f>
-        <v>0.15569659999999999</v>
+        <v>1.2166360000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>300</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="B44" s="2">
+        <v>290.8</v>
+      </c>
+      <c r="C44" s="2">
+        <v>287.89999999999998</v>
+      </c>
       <c r="D44" s="2">
         <f t="shared" si="6"/>
-        <v>0.70340193561272191</v>
+        <v>0.62561548031558156</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" si="7"/>
-        <v>5.6440999999999998E-2</v>
-      </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
+        <v>1.6342127999999998</v>
+      </c>
+      <c r="G44">
+        <v>25.06</v>
+      </c>
+      <c r="H44">
+        <v>75.900000000000006</v>
+      </c>
       <c r="I44" s="2">
         <f>(G44*$G$38)+$H$38</f>
-        <v>0.15569659999999999</v>
+        <v>2.4977319999999996</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>400</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="B45" s="2">
+        <v>396.6</v>
+      </c>
+      <c r="C45" s="2">
+        <v>394.6</v>
+      </c>
       <c r="D45" s="2">
         <f t="shared" si="6"/>
-        <v>0.51427520857161191</v>
+        <v>0.44308869633530029</v>
       </c>
       <c r="E45" s="2">
         <f t="shared" si="7"/>
-        <v>5.6440999999999998E-2</v>
+        <v>2.2077545999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>500</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="B46" s="2">
+        <v>444.7</v>
+      </c>
+      <c r="C46" s="2">
+        <v>443.6</v>
+      </c>
       <c r="D46" s="2">
         <f t="shared" si="6"/>
-        <v>0.3251484815305018</v>
+        <v>0.35182530434515963</v>
       </c>
       <c r="E46" s="2">
         <f t="shared" si="7"/>
-        <v>5.6440999999999998E-2</v>
+        <v>2.4685047</v>
       </c>
     </row>
-    <row r="53" spans="12:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="12:31" x14ac:dyDescent="0.2">
       <c r="L53" t="s">
         <v>25</v>
       </c>
@@ -36586,6 +36936,37 @@
       </c>
       <c r="AE53" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L54" s="14">
+        <f>O54*-1</f>
+        <v>571.2291265476922</v>
+      </c>
+      <c r="M54">
+        <f>P54</f>
+        <v>645.53209206769236</v>
+      </c>
+      <c r="O54" s="14" cm="1">
+        <f t="array" ref="O54:P54">LINEST(C41:C46,D41:D46,1,0)</f>
+        <v>-571.2291265476922</v>
+      </c>
+      <c r="P54">
+        <v>645.53209206769236</v>
+      </c>
+      <c r="U54" s="14" cm="1">
+        <f t="array" ref="U54:V54">LINEST(E41:E46,C41:C46)</f>
+        <v>5.4000201927129092E-3</v>
+      </c>
+      <c r="V54">
+        <v>7.6308433913971907E-2</v>
+      </c>
+      <c r="AD54" cm="1">
+        <f t="array" ref="AD54:AE54">LINEST(I41:I44,H41:H44,1,0)</f>
+        <v>3.2426681084678076E-2</v>
+      </c>
+      <c r="AE54">
+        <v>4.2097541507237102E-2</v>
       </c>
     </row>
   </sheetData>
@@ -36599,21 +36980,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FC39B9-7D84-4A00-8133-666937CDF7F6}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView zoomScale="137" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
@@ -36636,7 +37017,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -36665,7 +37046,7 @@
         <v>6.0617217853841998E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -36694,7 +37075,7 @@
         <v>3.4224996224523574E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -36723,7 +37104,7 @@
         <v>1.0607757848628552E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -36752,7 +37133,7 @@
         <v>3.1292574939330242E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -36781,7 +37162,7 @@
         <v>3.3218828963759828E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -36810,95 +37191,95 @@
         <v>4.2097541507237102E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1</v>
       </c>
       <c r="B8" s="15">
         <f>'HV3'!L18</f>
-        <v>0</v>
+        <v>568.76710642338446</v>
       </c>
       <c r="C8" s="15">
         <f>'HV3'!M18</f>
-        <v>0</v>
+        <v>640.78728852405129</v>
       </c>
       <c r="D8" s="15">
         <f>'HV3'!U18</f>
-        <v>0</v>
+        <v>5.423582293946007E-3</v>
       </c>
       <c r="E8" s="15">
         <f>'HV3'!V18</f>
-        <v>0</v>
+        <v>3.5951042465500738E-2</v>
       </c>
       <c r="F8" s="15">
         <f>'HV3'!AD18</f>
-        <v>0</v>
+        <v>3.2382223884500419E-2</v>
       </c>
       <c r="G8" s="15">
         <f>'HV3'!AE18</f>
-        <v>0</v>
+        <v>3.3218828963759828E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>2</v>
       </c>
       <c r="B9" s="16">
         <f>'HV3'!L36</f>
-        <v>0</v>
+        <v>549.5083943999997</v>
       </c>
       <c r="C9" s="16">
         <f>'HV3'!M36</f>
-        <v>0</v>
+        <v>641.86429143333328</v>
       </c>
       <c r="D9" s="16">
         <f>'HV3'!U36</f>
-        <v>0</v>
+        <v>5.3993139740979119E-3</v>
       </c>
       <c r="E9" s="16">
         <f>'HV3'!V36</f>
-        <v>0</v>
+        <v>5.5844338688657125E-2</v>
       </c>
       <c r="F9" s="16">
         <f>'HV3'!AD36</f>
-        <v>0</v>
+        <v>3.0056656326512957E-2</v>
       </c>
       <c r="G9" s="16">
         <f>'HV3'!AE36</f>
-        <v>0</v>
+        <v>3.1292574939330242E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>3</v>
       </c>
       <c r="B10" s="16">
         <f>'HV3'!L54</f>
-        <v>0</v>
+        <v>571.2291265476922</v>
       </c>
       <c r="C10" s="16">
         <f>'HV3'!M54</f>
-        <v>0</v>
+        <v>645.53209206769236</v>
       </c>
       <c r="D10" s="16">
         <f>'HV3'!U54</f>
-        <v>0</v>
+        <v>5.4000201927129092E-3</v>
       </c>
       <c r="E10" s="16">
         <f>'HV3'!V54</f>
-        <v>0</v>
+        <v>7.6308433913971907E-2</v>
       </c>
       <c r="F10" s="16">
         <f>'HV3'!AD54</f>
-        <v>0</v>
+        <v>3.2426681084678076E-2</v>
       </c>
       <c r="G10" s="16">
         <f>'HV3'!AE54</f>
-        <v>0</v>
+        <v>4.2097541507237102E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>16</v>
       </c>
@@ -36921,66 +37302,66 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="2">
         <f t="shared" ref="B13:G13" si="0">AVERAGE(B2:B10)</f>
-        <v>370.66115725196954</v>
+        <v>558.38389362653356</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>426.66926415016951</v>
+        <v>640.91189437517801</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>3.6153281154384168E-3</v>
+        <v>5.4178743888558421E-3</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>4.6576119352331448E-2</v>
+        <v>6.5254321026568085E-2</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>2.0917629214312679E-2</v>
+        <v>3.1458247136056168E-2</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="0"/>
-        <v>2.3562101926369032E-2</v>
+        <v>3.5407540305294277E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="2">
         <f t="shared" ref="B14:G14" si="1">MEDIAN(B2:B10)</f>
-        <v>545.58905390769223</v>
+        <v>560.40247523076903</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="1"/>
-        <v>639.60459904102572</v>
+        <v>644.89069448076918</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>5.4062969847480857E-3</v>
+        <v>5.418466995075171E-3</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="1"/>
-        <v>5.8712707379270146E-2</v>
+        <v>6.2957057487354806E-2</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="1"/>
-        <v>3.1703796340104694E-2</v>
+        <v>3.2382223884500419E-2</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="1"/>
-        <v>3.1292574939330242E-2</v>
+        <v>3.3218828963759828E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>16</v>
       </c>
@@ -37003,7 +37384,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -37032,7 +37413,7 @@
         <v>3.5149990642331375E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
@@ -37074,19 +37455,19 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="12" max="12" width="19.5" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -37101,7 +37482,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="2">
         <v>84.872727299999994</v>
       </c>
@@ -37113,7 +37494,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -37131,7 +37512,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>22</v>
       </c>
@@ -37147,7 +37528,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>40</v>
       </c>
@@ -37164,7 +37545,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>50</v>
       </c>
@@ -37181,7 +37562,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>70</v>
       </c>
@@ -37198,7 +37579,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>85</v>
       </c>
@@ -37212,7 +37593,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>100</v>
       </c>
@@ -37226,7 +37607,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="L17" t="s">
         <v>25</v>
       </c>
@@ -37246,7 +37627,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="L18" s="1">
         <v>496.42443255000001</v>
       </c>
@@ -37266,7 +37647,7 @@
         <v>2.5242730000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -37289,7 +37670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
         <v>511.81824260000002</v>
       </c>
@@ -37309,7 +37690,7 @@
         <v>6.370294E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>1</v>
       </c>
@@ -37335,7 +37716,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>50</v>
       </c>
@@ -37364,7 +37745,7 @@
         <v>0.62196533759999995</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>100</v>
       </c>
@@ -37393,7 +37774,7 @@
         <v>1.2395122375999998</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>200</v>
       </c>
@@ -37422,7 +37803,7 @@
         <v>2.0466460359000003</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>300</v>
       </c>
@@ -37451,7 +37832,7 @@
         <v>2.9519697913000003</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>400</v>
       </c>
@@ -37470,7 +37851,7 @@
         <v>2.106960086</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>500</v>
       </c>
@@ -37489,7 +37870,7 @@
         <v>2.6218054940000002</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="L35" t="s">
         <v>25</v>
       </c>
@@ -37509,7 +37890,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="L36" s="1">
         <v>456.95974044000002</v>
       </c>
@@ -37529,7 +37910,7 @@
         <v>2.6093709999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
@@ -37552,7 +37933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B38" s="2">
         <v>511.81824260000002</v>
       </c>
@@ -37572,7 +37953,7 @@
         <v>6.370294E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>1</v>
       </c>
@@ -37598,7 +37979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>50</v>
       </c>
@@ -37627,7 +38008,7 @@
         <v>0.65716551089999997</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>100</v>
       </c>
@@ -37656,7 +38037,7 @@
         <v>1.3290565380999999</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>200</v>
       </c>
@@ -37685,7 +38066,7 @@
         <v>2.1497763682000004</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>300</v>
       </c>
@@ -37714,7 +38095,7 @@
         <v>2.9729663859000004</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>400</v>
       </c>
@@ -37733,7 +38114,7 @@
         <v>2.1642853100000004</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>500</v>
       </c>
@@ -37752,7 +38133,7 @@
         <v>2.5796227820000004</v>
       </c>
     </row>
-    <row r="53" spans="12:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="12:31" x14ac:dyDescent="0.2">
       <c r="L53" t="s">
         <v>25</v>
       </c>
@@ -37772,7 +38153,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="12:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="12:31" x14ac:dyDescent="0.2">
       <c r="L54" s="1">
         <v>471.31869606999999</v>
       </c>
